--- a/Kamchatka/EPMA S.1 Analyses/EPMA RAW DATA/FormattedSamplesS.1.xlsx
+++ b/Kamchatka/EPMA S.1 Analyses/EPMA RAW DATA/FormattedSamplesS.1.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomassalazar/Desktop/Work/Krawcyzski Group/ESPM.Code/Petrology/Kamchatka/EPMA S.1 Analyses/EPMA RAW DATA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE1FE59B-FAAD-2B42-B189-24004C99FEFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{23DF1D51-DE10-5747-81F3-7A7F6BBE3D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="500" windowWidth="12900" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="4" r:id="rId1"/>
-    <sheet name="FormattedSamplesS.1" sheetId="16" r:id="rId2"/>
-    <sheet name="1709A1 L3" sheetId="18" r:id="rId3"/>
-    <sheet name="1709A1 L2" sheetId="17" r:id="rId4"/>
+    <sheet name="1709A1 L1" sheetId="16" r:id="rId2"/>
+    <sheet name="1709A1 L2" sheetId="17" r:id="rId3"/>
+    <sheet name="1709A1 L3" sheetId="18" r:id="rId4"/>
     <sheet name="1704G L1" sheetId="12" r:id="rId5"/>
     <sheet name="1704G L2" sheetId="13" r:id="rId6"/>
     <sheet name="1704G L3" sheetId="14" r:id="rId7"/>
@@ -28,7 +28,20 @@
     <sheet name="1702B2 L2" sheetId="8" r:id="rId13"/>
     <sheet name="1702B2 L3" sheetId="9" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -969,12 +982,12 @@
   <dimension ref="A1:FG63"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="38.33203125" customWidth="1"/>
     <col min="126" max="126" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -30993,11 +31006,14 @@
   </sheetPr>
   <dimension ref="A1:FG8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="AS2" sqref="AS2:AS8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -45453,11 +45469,14 @@
   </sheetPr>
   <dimension ref="A1:FG23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -52114,3882 +52133,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40327870-7A52-5A4E-AC9E-363DA766ACA9}">
-  <sheetPr>
-    <tabColor theme="5"/>
-  </sheetPr>
-  <dimension ref="A1:FG8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:163" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BM1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BN1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BO1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BP1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BQ1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BR1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BS1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BT1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BU1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BV1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BW1" t="s">
-        <v>73</v>
-      </c>
-      <c r="BX1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BY1" t="s">
-        <v>75</v>
-      </c>
-      <c r="BZ1" t="s">
-        <v>76</v>
-      </c>
-      <c r="CA1" t="s">
-        <v>77</v>
-      </c>
-      <c r="CB1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC1" t="s">
-        <v>79</v>
-      </c>
-      <c r="CD1" t="s">
-        <v>80</v>
-      </c>
-      <c r="CE1" t="s">
-        <v>81</v>
-      </c>
-      <c r="CF1" t="s">
-        <v>82</v>
-      </c>
-      <c r="CG1" t="s">
-        <v>83</v>
-      </c>
-      <c r="CH1" t="s">
-        <v>84</v>
-      </c>
-      <c r="CI1" t="s">
-        <v>85</v>
-      </c>
-      <c r="CJ1" t="s">
-        <v>86</v>
-      </c>
-      <c r="CK1" t="s">
-        <v>87</v>
-      </c>
-      <c r="CL1" t="s">
-        <v>88</v>
-      </c>
-      <c r="CM1" t="s">
-        <v>89</v>
-      </c>
-      <c r="CN1" t="s">
-        <v>90</v>
-      </c>
-      <c r="CO1" t="s">
-        <v>91</v>
-      </c>
-      <c r="CP1" t="s">
-        <v>92</v>
-      </c>
-      <c r="CQ1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CR1" t="s">
-        <v>94</v>
-      </c>
-      <c r="CS1" t="s">
-        <v>95</v>
-      </c>
-      <c r="CT1" t="s">
-        <v>96</v>
-      </c>
-      <c r="CU1" t="s">
-        <v>97</v>
-      </c>
-      <c r="CV1" t="s">
-        <v>98</v>
-      </c>
-      <c r="CW1" t="s">
-        <v>99</v>
-      </c>
-      <c r="CX1" t="s">
-        <v>100</v>
-      </c>
-      <c r="CY1" t="s">
-        <v>101</v>
-      </c>
-      <c r="CZ1" t="s">
-        <v>102</v>
-      </c>
-      <c r="DA1" t="s">
-        <v>103</v>
-      </c>
-      <c r="DB1" t="s">
-        <v>104</v>
-      </c>
-      <c r="DC1" t="s">
-        <v>105</v>
-      </c>
-      <c r="DD1" t="s">
-        <v>106</v>
-      </c>
-      <c r="DE1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DF1" t="s">
-        <v>108</v>
-      </c>
-      <c r="DG1" t="s">
-        <v>109</v>
-      </c>
-      <c r="DH1" t="s">
-        <v>110</v>
-      </c>
-      <c r="DI1" t="s">
-        <v>111</v>
-      </c>
-      <c r="DJ1" t="s">
-        <v>112</v>
-      </c>
-      <c r="DK1" t="s">
-        <v>113</v>
-      </c>
-      <c r="DL1" t="s">
-        <v>114</v>
-      </c>
-      <c r="DM1" t="s">
-        <v>115</v>
-      </c>
-      <c r="DN1" t="s">
-        <v>116</v>
-      </c>
-      <c r="DO1" t="s">
-        <v>117</v>
-      </c>
-      <c r="DP1" t="s">
-        <v>118</v>
-      </c>
-      <c r="DQ1" t="s">
-        <v>119</v>
-      </c>
-      <c r="DR1" t="s">
-        <v>120</v>
-      </c>
-      <c r="DS1" t="s">
-        <v>121</v>
-      </c>
-      <c r="DT1" t="s">
-        <v>122</v>
-      </c>
-      <c r="DU1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DV1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="DW1" t="s">
-        <v>125</v>
-      </c>
-      <c r="DX1" t="s">
-        <v>126</v>
-      </c>
-      <c r="DY1" t="s">
-        <v>127</v>
-      </c>
-      <c r="DZ1" t="s">
-        <v>128</v>
-      </c>
-      <c r="EA1" t="s">
-        <v>129</v>
-      </c>
-      <c r="EB1" t="s">
-        <v>130</v>
-      </c>
-      <c r="EC1" t="s">
-        <v>131</v>
-      </c>
-      <c r="ED1" t="s">
-        <v>132</v>
-      </c>
-      <c r="EE1" t="s">
-        <v>133</v>
-      </c>
-      <c r="EF1" t="s">
-        <v>134</v>
-      </c>
-      <c r="EG1" t="s">
-        <v>135</v>
-      </c>
-      <c r="EH1" t="s">
-        <v>136</v>
-      </c>
-      <c r="EI1" t="s">
-        <v>137</v>
-      </c>
-      <c r="EJ1" t="s">
-        <v>138</v>
-      </c>
-      <c r="EK1" t="s">
-        <v>139</v>
-      </c>
-      <c r="EL1" t="s">
-        <v>140</v>
-      </c>
-      <c r="EM1" t="s">
-        <v>141</v>
-      </c>
-      <c r="EN1" t="s">
-        <v>142</v>
-      </c>
-      <c r="EO1" t="s">
-        <v>143</v>
-      </c>
-      <c r="EP1" t="s">
-        <v>144</v>
-      </c>
-      <c r="EQ1" t="s">
-        <v>145</v>
-      </c>
-      <c r="ER1" t="s">
-        <v>146</v>
-      </c>
-      <c r="ES1" t="s">
-        <v>147</v>
-      </c>
-      <c r="ET1" t="s">
-        <v>148</v>
-      </c>
-      <c r="EU1" t="s">
-        <v>149</v>
-      </c>
-      <c r="EV1" t="s">
-        <v>150</v>
-      </c>
-      <c r="EW1" t="s">
-        <v>151</v>
-      </c>
-      <c r="EX1" t="s">
-        <v>152</v>
-      </c>
-      <c r="EY1" t="s">
-        <v>153</v>
-      </c>
-      <c r="EZ1" t="s">
-        <v>154</v>
-      </c>
-      <c r="FA1" t="s">
-        <v>155</v>
-      </c>
-      <c r="FB1" t="s">
-        <v>156</v>
-      </c>
-      <c r="FC1" t="s">
-        <v>157</v>
-      </c>
-      <c r="FD1" t="s">
-        <v>158</v>
-      </c>
-      <c r="FE1" t="s">
-        <v>159</v>
-      </c>
-      <c r="FF1" t="s">
-        <v>160</v>
-      </c>
-      <c r="FG1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="2" spans="1:163" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B2" s="2">
-        <v>18</v>
-      </c>
-      <c r="C2" s="2">
-        <v>40</v>
-      </c>
-      <c r="D2" s="2">
-        <v>15</v>
-      </c>
-      <c r="E2" s="2">
-        <v>25</v>
-      </c>
-      <c r="F2" s="2">
-        <v>5</v>
-      </c>
-      <c r="G2" s="2">
-        <v>113</v>
-      </c>
-      <c r="H2" s="2">
-        <v>20.0395</v>
-      </c>
-      <c r="I2" s="2">
-        <v>1.84388</v>
-      </c>
-      <c r="J2" s="2">
-        <v>5.2299100000000003</v>
-      </c>
-      <c r="K2" s="2">
-        <v>6.8599999999999998E-3</v>
-      </c>
-      <c r="L2" s="2">
-        <v>9.5874699999999997</v>
-      </c>
-      <c r="M2" s="2">
-        <v>-3.8999999999999998E-3</v>
-      </c>
-      <c r="N2" s="2">
-        <v>0.222745</v>
-      </c>
-      <c r="O2" s="2">
-        <v>8.2879699999999996</v>
-      </c>
-      <c r="P2" s="2">
-        <v>7.9879899999999999</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>1.4307E-2</v>
-      </c>
-      <c r="R2" s="2">
-        <v>1.7199899999999999</v>
-      </c>
-      <c r="S2" s="2">
-        <v>0.46441500000000002</v>
-      </c>
-      <c r="T2" s="2">
-        <v>1.1365999999999999E-2</v>
-      </c>
-      <c r="U2" s="2">
-        <v>4.5979999999999997E-3</v>
-      </c>
-      <c r="V2" s="2">
-        <v>6.3621999999999998E-2</v>
-      </c>
-      <c r="W2" s="2">
-        <v>5.7549000000000003E-2</v>
-      </c>
-      <c r="X2" s="2">
-        <v>42.628799999999998</v>
-      </c>
-      <c r="Y2" s="2">
-        <v>0.223801</v>
-      </c>
-      <c r="Z2" s="2">
-        <v>98.390799999999999</v>
-      </c>
-      <c r="AA2" s="2">
-        <v>42.871600000000001</v>
-      </c>
-      <c r="AB2" s="2">
-        <v>3.0756999999999999</v>
-      </c>
-      <c r="AC2" s="2">
-        <v>9.8818199999999994</v>
-      </c>
-      <c r="AD2" s="2">
-        <v>1.0026999999999999E-2</v>
-      </c>
-      <c r="AE2" s="2">
-        <v>12.334300000000001</v>
-      </c>
-      <c r="AF2" s="2">
-        <v>-4.96E-3</v>
-      </c>
-      <c r="AG2" s="2">
-        <v>0.28761599999999998</v>
-      </c>
-      <c r="AH2" s="2">
-        <v>13.7439</v>
-      </c>
-      <c r="AI2" s="2">
-        <v>11.1768</v>
-      </c>
-      <c r="AJ2" s="2">
-        <v>1.5973000000000001E-2</v>
-      </c>
-      <c r="AK2" s="2">
-        <v>2.3185099999999998</v>
-      </c>
-      <c r="AL2" s="2">
-        <v>0.55943100000000001</v>
-      </c>
-      <c r="AM2" s="2">
-        <v>2.6044999999999999E-2</v>
-      </c>
-      <c r="AN2" s="2">
-        <v>1.1480000000000001E-2</v>
-      </c>
-      <c r="AO2" s="2">
-        <v>6.3621999999999998E-2</v>
-      </c>
-      <c r="AP2" s="2">
-        <v>5.7549000000000003E-2</v>
-      </c>
-      <c r="AQ2" s="2">
-        <v>-3.8600000000000002E-2</v>
-      </c>
-      <c r="AR2" s="2">
-        <v>2</v>
-      </c>
-      <c r="AS2" s="2">
-        <v>98.390799999999999</v>
-      </c>
-      <c r="AT2" s="2">
-        <v>22</v>
-      </c>
-      <c r="AU2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AV2" s="2">
-        <v>5.8916399999999998</v>
-      </c>
-      <c r="AW2" s="2">
-        <v>0.31785999999999998</v>
-      </c>
-      <c r="AX2" s="2">
-        <v>1.6005199999999999</v>
-      </c>
-      <c r="AY2" s="2">
-        <v>1.0889999999999999E-3</v>
-      </c>
-      <c r="AZ2" s="2">
-        <v>1.41757</v>
-      </c>
-      <c r="BA2" s="2">
-        <v>-5.5000000000000003E-4</v>
-      </c>
-      <c r="BB2" s="2">
-        <v>3.3479000000000002E-2</v>
-      </c>
-      <c r="BC2" s="2">
-        <v>2.8157399999999999</v>
-      </c>
-      <c r="BD2" s="2">
-        <v>1.6456999999999999</v>
-      </c>
-      <c r="BE2" s="2">
-        <v>8.5999999999999998E-4</v>
-      </c>
-      <c r="BF2" s="2">
-        <v>0.61777099999999996</v>
-      </c>
-      <c r="BG2" s="2">
-        <v>9.8072000000000006E-2</v>
-      </c>
-      <c r="BH2" s="2">
-        <v>3.0300000000000001E-3</v>
-      </c>
-      <c r="BI2" s="2">
-        <v>1.1839999999999999E-3</v>
-      </c>
-      <c r="BJ2" s="2">
-        <v>1.4818E-2</v>
-      </c>
-      <c r="BK2" s="2">
-        <v>2.5013000000000001E-2</v>
-      </c>
-      <c r="BL2" s="2">
-        <v>22</v>
-      </c>
-      <c r="BM2" s="2">
-        <v>1.8333299999999999</v>
-      </c>
-      <c r="BN2" s="2"/>
-      <c r="BO2" s="2"/>
-      <c r="BP2" s="2"/>
-      <c r="BQ2" s="2"/>
-      <c r="BR2" s="2"/>
-      <c r="BS2" s="2">
-        <v>8.0859999999999994E-3</v>
-      </c>
-      <c r="BT2" s="2">
-        <v>1.0786E-2</v>
-      </c>
-      <c r="BU2" s="2">
-        <v>7.4869999999999997E-3</v>
-      </c>
-      <c r="BV2" s="2">
-        <v>1.0411999999999999E-2</v>
-      </c>
-      <c r="BW2" s="2">
-        <v>1.5447000000000001E-2</v>
-      </c>
-      <c r="BX2" s="2">
-        <v>1.6126999999999999E-2</v>
-      </c>
-      <c r="BY2" s="2">
-        <v>1.464E-2</v>
-      </c>
-      <c r="BZ2" s="2">
-        <v>7.5519999999999997E-3</v>
-      </c>
-      <c r="CA2" s="2">
-        <v>9.8270000000000007E-3</v>
-      </c>
-      <c r="CB2" s="2">
-        <v>3.1629999999999998E-2</v>
-      </c>
-      <c r="CC2" s="2">
-        <v>1.2370000000000001E-2</v>
-      </c>
-      <c r="CD2" s="2">
-        <v>1.0506E-2</v>
-      </c>
-      <c r="CE2" s="2">
-        <v>8.9280000000000002E-3</v>
-      </c>
-      <c r="CF2" s="2">
-        <v>9.3720000000000001E-3</v>
-      </c>
-      <c r="CG2" s="2">
-        <v>6.8069999999999997E-3</v>
-      </c>
-      <c r="CH2" s="2">
-        <v>2.7324999999999999E-2</v>
-      </c>
-      <c r="CI2" s="2">
-        <v>0.204986</v>
-      </c>
-      <c r="CJ2" s="2">
-        <v>1.4398299999999999</v>
-      </c>
-      <c r="CK2" s="2">
-        <v>0.457343</v>
-      </c>
-      <c r="CL2" s="2">
-        <v>108.839</v>
-      </c>
-      <c r="CM2" s="2">
-        <v>0.68720700000000001</v>
-      </c>
-      <c r="CN2" s="2">
-        <v>-290.63</v>
-      </c>
-      <c r="CO2" s="2">
-        <v>6.67401</v>
-      </c>
-      <c r="CP2" s="2">
-        <v>0.41614499999999999</v>
-      </c>
-      <c r="CQ2" s="2">
-        <v>0.55427199999999999</v>
-      </c>
-      <c r="CR2" s="2">
-        <v>158.6</v>
-      </c>
-      <c r="CS2" s="2">
-        <v>1.44207</v>
-      </c>
-      <c r="CT2" s="2">
-        <v>3.1590699999999998</v>
-      </c>
-      <c r="CU2" s="2">
-        <v>60.332999999999998</v>
-      </c>
-      <c r="CV2" s="2">
-        <v>148.38800000000001</v>
-      </c>
-      <c r="CW2" s="2">
-        <v>9.7101000000000006</v>
-      </c>
-      <c r="CX2" s="2">
-        <v>21.944800000000001</v>
-      </c>
-      <c r="CY2" s="2">
-        <v>75.445499999999996</v>
-      </c>
-      <c r="CZ2" s="2">
-        <v>78.848100000000002</v>
-      </c>
-      <c r="DA2" s="2">
-        <v>10.6905</v>
-      </c>
-      <c r="DB2" s="2">
-        <v>25.01</v>
-      </c>
-      <c r="DC2" s="2">
-        <v>25.04</v>
-      </c>
-      <c r="DD2" s="2">
-        <v>20.3</v>
-      </c>
-      <c r="DE2" s="2">
-        <v>20.43</v>
-      </c>
-      <c r="DF2" s="2">
-        <v>30</v>
-      </c>
-      <c r="DG2" s="2">
-        <v>30</v>
-      </c>
-      <c r="DH2" s="2">
-        <v>30</v>
-      </c>
-      <c r="DI2" s="2">
-        <v>30</v>
-      </c>
-      <c r="DJ2" s="2">
-        <v>45</v>
-      </c>
-      <c r="DK2" s="2">
-        <v>30</v>
-      </c>
-      <c r="DL2" s="2">
-        <v>45</v>
-      </c>
-      <c r="DM2" s="2">
-        <v>30</v>
-      </c>
-      <c r="DN2" s="2">
-        <v>20</v>
-      </c>
-      <c r="DO2" s="2">
-        <v>30</v>
-      </c>
-      <c r="DP2" s="2">
-        <v>30</v>
-      </c>
-      <c r="DQ2" s="2">
-        <v>15</v>
-      </c>
-      <c r="DR2" s="2">
-        <v>20</v>
-      </c>
-      <c r="DS2" s="2">
-        <v>15</v>
-      </c>
-      <c r="DT2" s="2">
-        <v>30</v>
-      </c>
-      <c r="DU2" s="2">
-        <v>70</v>
-      </c>
-      <c r="DV2" s="3">
-        <v>45484.717361111114</v>
-      </c>
-      <c r="DW2" s="2">
-        <v>1039</v>
-      </c>
-      <c r="DX2" s="2">
-        <v>1710</v>
-      </c>
-      <c r="DY2" s="2">
-        <v>1545</v>
-      </c>
-      <c r="DZ2" s="2">
-        <v>1713</v>
-      </c>
-      <c r="EA2" s="2">
-        <v>1715</v>
-      </c>
-      <c r="EB2" s="2">
-        <v>472</v>
-      </c>
-      <c r="EC2" s="2">
-        <v>473</v>
-      </c>
-      <c r="ED2" s="2">
-        <v>450</v>
-      </c>
-      <c r="EE2" s="2">
-        <v>1039</v>
-      </c>
-      <c r="EF2" s="2">
-        <v>830</v>
-      </c>
-      <c r="EG2" s="2">
-        <v>1500</v>
-      </c>
-      <c r="EH2" s="2">
-        <v>1524</v>
-      </c>
-      <c r="EI2" s="2">
-        <v>1940</v>
-      </c>
-      <c r="EJ2" s="2">
-        <v>708</v>
-      </c>
-      <c r="EK2" s="2">
-        <v>1560</v>
-      </c>
-      <c r="EL2" s="2">
-        <v>1360</v>
-      </c>
-      <c r="EM2" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="EN2" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="EO2" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="EP2" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="EQ2" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="ER2" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="ES2" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="ET2" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="EU2" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="EV2" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="EW2" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="EX2" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="EY2" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="EZ2" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="FA2" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="FB2" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="FC2" s="2">
-        <v>16.2773</v>
-      </c>
-      <c r="FD2" s="2">
-        <v>38.317100000000003</v>
-      </c>
-      <c r="FE2" s="2">
-        <v>12.957100000000001</v>
-      </c>
-      <c r="FF2" s="2">
-        <v>3.8589999999999999E-2</v>
-      </c>
-      <c r="FG2" s="2">
-        <v>42.628799999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:163" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B3" s="2">
-        <v>18</v>
-      </c>
-      <c r="C3" s="2">
-        <v>40</v>
-      </c>
-      <c r="D3" s="2">
-        <v>15</v>
-      </c>
-      <c r="E3" s="2">
-        <v>25</v>
-      </c>
-      <c r="F3" s="2">
-        <v>5</v>
-      </c>
-      <c r="G3" s="2">
-        <v>114</v>
-      </c>
-      <c r="H3" s="2">
-        <v>20.2258</v>
-      </c>
-      <c r="I3" s="2">
-        <v>1.6432800000000001</v>
-      </c>
-      <c r="J3" s="2">
-        <v>5.1942399999999997</v>
-      </c>
-      <c r="K3" s="2">
-        <v>7.6099999999999996E-4</v>
-      </c>
-      <c r="L3" s="2">
-        <v>9.7615599999999993</v>
-      </c>
-      <c r="M3" s="2">
-        <v>1.7770000000000001E-2</v>
-      </c>
-      <c r="N3" s="2">
-        <v>0.24505099999999999</v>
-      </c>
-      <c r="O3" s="2">
-        <v>8.3192599999999999</v>
-      </c>
-      <c r="P3" s="2">
-        <v>7.9383699999999999</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>4.1565999999999999E-2</v>
-      </c>
-      <c r="R3" s="2">
-        <v>1.6998800000000001</v>
-      </c>
-      <c r="S3" s="2">
-        <v>0.425649</v>
-      </c>
-      <c r="T3" s="2">
-        <v>1.0126E-2</v>
-      </c>
-      <c r="U3" s="2">
-        <v>3.4580000000000001E-3</v>
-      </c>
-      <c r="V3" s="2">
-        <v>4.2417000000000003E-2</v>
-      </c>
-      <c r="W3" s="2">
-        <v>9.9083000000000004E-2</v>
-      </c>
-      <c r="X3" s="2">
-        <v>42.707799999999999</v>
-      </c>
-      <c r="Y3" s="2">
-        <v>0.223801</v>
-      </c>
-      <c r="Z3" s="2">
-        <v>98.599800000000002</v>
-      </c>
-      <c r="AA3" s="2">
-        <v>43.270099999999999</v>
-      </c>
-      <c r="AB3" s="2">
-        <v>2.7410899999999998</v>
-      </c>
-      <c r="AC3" s="2">
-        <v>9.8144200000000001</v>
-      </c>
-      <c r="AD3" s="2">
-        <v>1.1119999999999999E-3</v>
-      </c>
-      <c r="AE3" s="2">
-        <v>12.558199999999999</v>
-      </c>
-      <c r="AF3" s="2">
-        <v>2.2613000000000001E-2</v>
-      </c>
-      <c r="AG3" s="2">
-        <v>0.31641900000000001</v>
-      </c>
-      <c r="AH3" s="2">
-        <v>13.7958</v>
-      </c>
-      <c r="AI3" s="2">
-        <v>11.1074</v>
-      </c>
-      <c r="AJ3" s="2">
-        <v>4.6407999999999998E-2</v>
-      </c>
-      <c r="AK3" s="2">
-        <v>2.2913999999999999</v>
-      </c>
-      <c r="AL3" s="2">
-        <v>0.51273400000000002</v>
-      </c>
-      <c r="AM3" s="2">
-        <v>2.3202E-2</v>
-      </c>
-      <c r="AN3" s="2">
-        <v>8.6350000000000003E-3</v>
-      </c>
-      <c r="AO3" s="2">
-        <v>4.2417000000000003E-2</v>
-      </c>
-      <c r="AP3" s="2">
-        <v>9.9083000000000004E-2</v>
-      </c>
-      <c r="AQ3" s="2">
-        <v>-5.1290000000000002E-2</v>
-      </c>
-      <c r="AR3" s="2">
-        <v>2</v>
-      </c>
-      <c r="AS3" s="2">
-        <v>98.599800000000002</v>
-      </c>
-      <c r="AT3" s="2">
-        <v>22</v>
-      </c>
-      <c r="AU3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AV3" s="2">
-        <v>5.9354100000000001</v>
-      </c>
-      <c r="AW3" s="2">
-        <v>0.28275699999999998</v>
-      </c>
-      <c r="AX3" s="2">
-        <v>1.58666</v>
-      </c>
-      <c r="AY3" s="2">
-        <v>1.21E-4</v>
-      </c>
-      <c r="AZ3" s="2">
-        <v>1.4406399999999999</v>
-      </c>
-      <c r="BA3" s="2">
-        <v>2.4949999999999998E-3</v>
-      </c>
-      <c r="BB3" s="2">
-        <v>3.6763999999999998E-2</v>
-      </c>
-      <c r="BC3" s="2">
-        <v>2.8211400000000002</v>
-      </c>
-      <c r="BD3" s="2">
-        <v>1.63245</v>
-      </c>
-      <c r="BE3" s="2">
-        <v>2.4940000000000001E-3</v>
-      </c>
-      <c r="BF3" s="2">
-        <v>0.60941699999999999</v>
-      </c>
-      <c r="BG3" s="2">
-        <v>8.9719999999999994E-2</v>
-      </c>
-      <c r="BH3" s="2">
-        <v>2.6940000000000002E-3</v>
-      </c>
-      <c r="BI3" s="2">
-        <v>8.8900000000000003E-4</v>
-      </c>
-      <c r="BJ3" s="2">
-        <v>9.861E-3</v>
-      </c>
-      <c r="BK3" s="2">
-        <v>4.2986000000000003E-2</v>
-      </c>
-      <c r="BL3" s="2">
-        <v>22</v>
-      </c>
-      <c r="BM3" s="2">
-        <v>1.8299399999999999</v>
-      </c>
-      <c r="BN3" s="2"/>
-      <c r="BO3" s="2"/>
-      <c r="BP3" s="2"/>
-      <c r="BQ3" s="2"/>
-      <c r="BR3" s="2"/>
-      <c r="BS3" s="2">
-        <v>8.0929999999999995E-3</v>
-      </c>
-      <c r="BT3" s="2">
-        <v>1.0789999999999999E-2</v>
-      </c>
-      <c r="BU3" s="2">
-        <v>7.4939999999999998E-3</v>
-      </c>
-      <c r="BV3" s="2">
-        <v>1.0410000000000001E-2</v>
-      </c>
-      <c r="BW3" s="2">
-        <v>1.5455E-2</v>
-      </c>
-      <c r="BX3" s="2">
-        <v>1.6139000000000001E-2</v>
-      </c>
-      <c r="BY3" s="2">
-        <v>1.4645E-2</v>
-      </c>
-      <c r="BZ3" s="2">
-        <v>7.5589999999999997E-3</v>
-      </c>
-      <c r="CA3" s="2">
-        <v>9.835E-3</v>
-      </c>
-      <c r="CB3" s="2">
-        <v>3.1641000000000002E-2</v>
-      </c>
-      <c r="CC3" s="2">
-        <v>1.2385999999999999E-2</v>
-      </c>
-      <c r="CD3" s="2">
-        <v>1.0517E-2</v>
-      </c>
-      <c r="CE3" s="2">
-        <v>8.9370000000000005E-3</v>
-      </c>
-      <c r="CF3" s="2">
-        <v>9.3810000000000004E-3</v>
-      </c>
-      <c r="CG3" s="2">
-        <v>6.8129999999999996E-3</v>
-      </c>
-      <c r="CH3" s="2">
-        <v>2.7146E-2</v>
-      </c>
-      <c r="CI3" s="2">
-        <v>0.20407900000000001</v>
-      </c>
-      <c r="CJ3" s="2">
-        <v>1.5329200000000001</v>
-      </c>
-      <c r="CK3" s="2">
-        <v>0.45921800000000002</v>
-      </c>
-      <c r="CL3" s="2">
-        <v>968.30499999999995</v>
-      </c>
-      <c r="CM3" s="2">
-        <v>0.68094200000000005</v>
-      </c>
-      <c r="CN3" s="2">
-        <v>65.010400000000004</v>
-      </c>
-      <c r="CO3" s="2">
-        <v>6.2221399999999996</v>
-      </c>
-      <c r="CP3" s="2">
-        <v>0.41556700000000002</v>
-      </c>
-      <c r="CQ3" s="2">
-        <v>0.55623699999999998</v>
-      </c>
-      <c r="CR3" s="2">
-        <v>56.099499999999999</v>
-      </c>
-      <c r="CS3" s="2">
-        <v>1.45282</v>
-      </c>
-      <c r="CT3" s="2">
-        <v>3.3401399999999999</v>
-      </c>
-      <c r="CU3" s="2">
-        <v>67.224299999999999</v>
-      </c>
-      <c r="CV3" s="2">
-        <v>196.078</v>
-      </c>
-      <c r="CW3" s="2">
-        <v>13.5875</v>
-      </c>
-      <c r="CX3" s="2">
-        <v>12.819800000000001</v>
-      </c>
-      <c r="CY3" s="2">
-        <v>75.5381</v>
-      </c>
-      <c r="CZ3" s="2">
-        <v>78.793400000000005</v>
-      </c>
-      <c r="DA3" s="2">
-        <v>10.6905</v>
-      </c>
-      <c r="DB3" s="2">
-        <v>25</v>
-      </c>
-      <c r="DC3" s="2">
-        <v>25.05</v>
-      </c>
-      <c r="DD3" s="2">
-        <v>20.315000000000001</v>
-      </c>
-      <c r="DE3" s="2">
-        <v>20.43</v>
-      </c>
-      <c r="DF3" s="2">
-        <v>30</v>
-      </c>
-      <c r="DG3" s="2">
-        <v>30</v>
-      </c>
-      <c r="DH3" s="2">
-        <v>30</v>
-      </c>
-      <c r="DI3" s="2">
-        <v>30</v>
-      </c>
-      <c r="DJ3" s="2">
-        <v>45</v>
-      </c>
-      <c r="DK3" s="2">
-        <v>30</v>
-      </c>
-      <c r="DL3" s="2">
-        <v>45</v>
-      </c>
-      <c r="DM3" s="2">
-        <v>30</v>
-      </c>
-      <c r="DN3" s="2">
-        <v>20</v>
-      </c>
-      <c r="DO3" s="2">
-        <v>30</v>
-      </c>
-      <c r="DP3" s="2">
-        <v>30</v>
-      </c>
-      <c r="DQ3" s="2">
-        <v>15</v>
-      </c>
-      <c r="DR3" s="2">
-        <v>20</v>
-      </c>
-      <c r="DS3" s="2">
-        <v>15</v>
-      </c>
-      <c r="DT3" s="2">
-        <v>30</v>
-      </c>
-      <c r="DU3" s="2">
-        <v>70</v>
-      </c>
-      <c r="DV3" s="3">
-        <v>45484.719444444447</v>
-      </c>
-      <c r="DW3" s="2">
-        <v>1039</v>
-      </c>
-      <c r="DX3" s="2">
-        <v>1710</v>
-      </c>
-      <c r="DY3" s="2">
-        <v>1545</v>
-      </c>
-      <c r="DZ3" s="2">
-        <v>1713</v>
-      </c>
-      <c r="EA3" s="2">
-        <v>1715</v>
-      </c>
-      <c r="EB3" s="2">
-        <v>472</v>
-      </c>
-      <c r="EC3" s="2">
-        <v>473</v>
-      </c>
-      <c r="ED3" s="2">
-        <v>450</v>
-      </c>
-      <c r="EE3" s="2">
-        <v>1039</v>
-      </c>
-      <c r="EF3" s="2">
-        <v>830</v>
-      </c>
-      <c r="EG3" s="2">
-        <v>1500</v>
-      </c>
-      <c r="EH3" s="2">
-        <v>1524</v>
-      </c>
-      <c r="EI3" s="2">
-        <v>1940</v>
-      </c>
-      <c r="EJ3" s="2">
-        <v>708</v>
-      </c>
-      <c r="EK3" s="2">
-        <v>1560</v>
-      </c>
-      <c r="EL3" s="2">
-        <v>1360</v>
-      </c>
-      <c r="EM3" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="EN3" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="EO3" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="EP3" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="EQ3" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="ER3" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="ES3" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="ET3" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="EU3" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="EV3" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="EW3" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="EX3" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="EY3" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="EZ3" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="FA3" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="FB3" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="FC3" s="2">
-        <v>16.273599999999998</v>
-      </c>
-      <c r="FD3" s="2">
-        <v>38.3264</v>
-      </c>
-      <c r="FE3" s="2">
-        <v>12.9686</v>
-      </c>
-      <c r="FF3" s="2">
-        <v>5.1295E-2</v>
-      </c>
-      <c r="FG3" s="2">
-        <v>42.707799999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:163" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B4" s="2">
-        <v>18</v>
-      </c>
-      <c r="C4" s="2">
-        <v>40</v>
-      </c>
-      <c r="D4" s="2">
-        <v>15</v>
-      </c>
-      <c r="E4" s="2">
-        <v>25</v>
-      </c>
-      <c r="F4" s="2">
-        <v>5</v>
-      </c>
-      <c r="G4" s="2">
-        <v>115</v>
-      </c>
-      <c r="H4" s="2">
-        <v>21.264299999999999</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0.66061400000000003</v>
-      </c>
-      <c r="J4" s="2">
-        <v>4.6474799999999998</v>
-      </c>
-      <c r="K4" s="2">
-        <v>3.2814999999999997E-2</v>
-      </c>
-      <c r="L4" s="2">
-        <v>9.3055900000000005</v>
-      </c>
-      <c r="M4" s="2">
-        <v>1.222E-2</v>
-      </c>
-      <c r="N4" s="2">
-        <v>0.201539</v>
-      </c>
-      <c r="O4" s="2">
-        <v>9.1493699999999993</v>
-      </c>
-      <c r="P4" s="2">
-        <v>8.0055999999999994</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>2.215E-3</v>
-      </c>
-      <c r="R4" s="2">
-        <v>1.33799</v>
-      </c>
-      <c r="S4" s="2">
-        <v>0.34545300000000001</v>
-      </c>
-      <c r="T4" s="2">
-        <v>1.3749000000000001E-2</v>
-      </c>
-      <c r="U4" s="2">
-        <v>3.3700000000000002E-3</v>
-      </c>
-      <c r="V4" s="2">
-        <v>5.8195999999999998E-2</v>
-      </c>
-      <c r="W4" s="2">
-        <v>0.116661</v>
-      </c>
-      <c r="X4" s="2">
-        <v>43.0381</v>
-      </c>
-      <c r="Y4" s="2">
-        <v>0.223801</v>
-      </c>
-      <c r="Z4" s="2">
-        <v>98.418999999999997</v>
-      </c>
-      <c r="AA4" s="2">
-        <v>45.491799999999998</v>
-      </c>
-      <c r="AB4" s="2">
-        <v>1.1019399999999999</v>
-      </c>
-      <c r="AC4" s="2">
-        <v>8.7813400000000001</v>
-      </c>
-      <c r="AD4" s="2">
-        <v>4.7961999999999998E-2</v>
-      </c>
-      <c r="AE4" s="2">
-        <v>11.9716</v>
-      </c>
-      <c r="AF4" s="2">
-        <v>1.555E-2</v>
-      </c>
-      <c r="AG4" s="2">
-        <v>0.26023499999999999</v>
-      </c>
-      <c r="AH4" s="2">
-        <v>15.1724</v>
-      </c>
-      <c r="AI4" s="2">
-        <v>11.2014</v>
-      </c>
-      <c r="AJ4" s="2">
-        <v>2.4729999999999999E-3</v>
-      </c>
-      <c r="AK4" s="2">
-        <v>1.80358</v>
-      </c>
-      <c r="AL4" s="2">
-        <v>0.41613099999999997</v>
-      </c>
-      <c r="AM4" s="2">
-        <v>3.1503999999999997E-2</v>
-      </c>
-      <c r="AN4" s="2">
-        <v>8.4139999999999996E-3</v>
-      </c>
-      <c r="AO4" s="2">
-        <v>5.8195999999999998E-2</v>
-      </c>
-      <c r="AP4" s="2">
-        <v>0.116661</v>
-      </c>
-      <c r="AQ4" s="2">
-        <v>-6.2269999999999999E-2</v>
-      </c>
-      <c r="AR4" s="2">
-        <v>2</v>
-      </c>
-      <c r="AS4" s="2">
-        <v>98.418999999999997</v>
-      </c>
-      <c r="AT4" s="2">
-        <v>22</v>
-      </c>
-      <c r="AU4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AV4" s="2">
-        <v>6.1922699999999997</v>
-      </c>
-      <c r="AW4" s="2">
-        <v>0.112798</v>
-      </c>
-      <c r="AX4" s="2">
-        <v>1.4087499999999999</v>
-      </c>
-      <c r="AY4" s="2">
-        <v>5.1619999999999999E-3</v>
-      </c>
-      <c r="AZ4" s="2">
-        <v>1.3628100000000001</v>
-      </c>
-      <c r="BA4" s="2">
-        <v>1.702E-3</v>
-      </c>
-      <c r="BB4" s="2">
-        <v>3.0003999999999999E-2</v>
-      </c>
-      <c r="BC4" s="2">
-        <v>3.07883</v>
-      </c>
-      <c r="BD4" s="2">
-        <v>1.63364</v>
-      </c>
-      <c r="BE4" s="2">
-        <v>1.3200000000000001E-4</v>
-      </c>
-      <c r="BF4" s="2">
-        <v>0.47599599999999997</v>
-      </c>
-      <c r="BG4" s="2">
-        <v>7.2257000000000002E-2</v>
-      </c>
-      <c r="BH4" s="2">
-        <v>3.63E-3</v>
-      </c>
-      <c r="BI4" s="2">
-        <v>8.5999999999999998E-4</v>
-      </c>
-      <c r="BJ4" s="2">
-        <v>1.3424999999999999E-2</v>
-      </c>
-      <c r="BK4" s="2">
-        <v>5.0222999999999997E-2</v>
-      </c>
-      <c r="BL4" s="2">
-        <v>22</v>
-      </c>
-      <c r="BM4" s="2">
-        <v>1.8159000000000001</v>
-      </c>
-      <c r="BN4" s="2"/>
-      <c r="BO4" s="2"/>
-      <c r="BP4" s="2"/>
-      <c r="BQ4" s="2"/>
-      <c r="BR4" s="2"/>
-      <c r="BS4" s="2">
-        <v>8.0319999999999992E-3</v>
-      </c>
-      <c r="BT4" s="2">
-        <v>1.0737999999999999E-2</v>
-      </c>
-      <c r="BU4" s="2">
-        <v>7.4469999999999996E-3</v>
-      </c>
-      <c r="BV4" s="2">
-        <v>1.0359999999999999E-2</v>
-      </c>
-      <c r="BW4" s="2">
-        <v>1.5372E-2</v>
-      </c>
-      <c r="BX4" s="2">
-        <v>1.6050999999999999E-2</v>
-      </c>
-      <c r="BY4" s="2">
-        <v>1.4593999999999999E-2</v>
-      </c>
-      <c r="BZ4" s="2">
-        <v>7.4640000000000001E-3</v>
-      </c>
-      <c r="CA4" s="2">
-        <v>9.8169999999999993E-3</v>
-      </c>
-      <c r="CB4" s="2">
-        <v>3.1512999999999999E-2</v>
-      </c>
-      <c r="CC4" s="2">
-        <v>1.2215E-2</v>
-      </c>
-      <c r="CD4" s="2">
-        <v>1.0486000000000001E-2</v>
-      </c>
-      <c r="CE4" s="2">
-        <v>8.9289999999999994E-3</v>
-      </c>
-      <c r="CF4" s="2">
-        <v>9.3670000000000003E-3</v>
-      </c>
-      <c r="CG4" s="2">
-        <v>6.796E-3</v>
-      </c>
-      <c r="CH4" s="2">
-        <v>2.6647000000000001E-2</v>
-      </c>
-      <c r="CI4" s="2">
-        <v>0.19863</v>
-      </c>
-      <c r="CJ4" s="2">
-        <v>2.5777100000000002</v>
-      </c>
-      <c r="CK4" s="2">
-        <v>0.48671500000000001</v>
-      </c>
-      <c r="CL4" s="2">
-        <v>23.882200000000001</v>
-      </c>
-      <c r="CM4" s="2">
-        <v>0.69835100000000006</v>
-      </c>
-      <c r="CN4" s="2">
-        <v>93.624099999999999</v>
-      </c>
-      <c r="CO4" s="2">
-        <v>7.1841699999999999</v>
-      </c>
-      <c r="CP4" s="2">
-        <v>0.393486</v>
-      </c>
-      <c r="CQ4" s="2">
-        <v>0.555006</v>
-      </c>
-      <c r="CR4" s="2">
-        <v>1008.16</v>
-      </c>
-      <c r="CS4" s="2">
-        <v>1.65395</v>
-      </c>
-      <c r="CT4" s="2">
-        <v>3.8250500000000001</v>
-      </c>
-      <c r="CU4" s="2">
-        <v>50.7059</v>
-      </c>
-      <c r="CV4" s="2">
-        <v>200.84</v>
-      </c>
-      <c r="CW4" s="2">
-        <v>10.4354</v>
-      </c>
-      <c r="CX4" s="2">
-        <v>10.7537</v>
-      </c>
-      <c r="CY4" s="2">
-        <v>75.612099999999998</v>
-      </c>
-      <c r="CZ4" s="2">
-        <v>78.642200000000003</v>
-      </c>
-      <c r="DA4" s="2">
-        <v>10.6905</v>
-      </c>
-      <c r="DB4" s="2">
-        <v>25.01</v>
-      </c>
-      <c r="DC4" s="2">
-        <v>25.045000000000002</v>
-      </c>
-      <c r="DD4" s="2">
-        <v>20.350000000000001</v>
-      </c>
-      <c r="DE4" s="2">
-        <v>20.49</v>
-      </c>
-      <c r="DF4" s="2">
-        <v>30</v>
-      </c>
-      <c r="DG4" s="2">
-        <v>30</v>
-      </c>
-      <c r="DH4" s="2">
-        <v>30</v>
-      </c>
-      <c r="DI4" s="2">
-        <v>30</v>
-      </c>
-      <c r="DJ4" s="2">
-        <v>45</v>
-      </c>
-      <c r="DK4" s="2">
-        <v>30</v>
-      </c>
-      <c r="DL4" s="2">
-        <v>45</v>
-      </c>
-      <c r="DM4" s="2">
-        <v>30</v>
-      </c>
-      <c r="DN4" s="2">
-        <v>20</v>
-      </c>
-      <c r="DO4" s="2">
-        <v>30</v>
-      </c>
-      <c r="DP4" s="2">
-        <v>30</v>
-      </c>
-      <c r="DQ4" s="2">
-        <v>15</v>
-      </c>
-      <c r="DR4" s="2">
-        <v>20</v>
-      </c>
-      <c r="DS4" s="2">
-        <v>15</v>
-      </c>
-      <c r="DT4" s="2">
-        <v>30</v>
-      </c>
-      <c r="DU4" s="2">
-        <v>70</v>
-      </c>
-      <c r="DV4" s="3">
-        <v>45484.72152777778</v>
-      </c>
-      <c r="DW4" s="2">
-        <v>1039</v>
-      </c>
-      <c r="DX4" s="2">
-        <v>1710</v>
-      </c>
-      <c r="DY4" s="2">
-        <v>1545</v>
-      </c>
-      <c r="DZ4" s="2">
-        <v>1713</v>
-      </c>
-      <c r="EA4" s="2">
-        <v>1715</v>
-      </c>
-      <c r="EB4" s="2">
-        <v>472</v>
-      </c>
-      <c r="EC4" s="2">
-        <v>473</v>
-      </c>
-      <c r="ED4" s="2">
-        <v>450</v>
-      </c>
-      <c r="EE4" s="2">
-        <v>1039</v>
-      </c>
-      <c r="EF4" s="2">
-        <v>830</v>
-      </c>
-      <c r="EG4" s="2">
-        <v>1500</v>
-      </c>
-      <c r="EH4" s="2">
-        <v>1524</v>
-      </c>
-      <c r="EI4" s="2">
-        <v>1940</v>
-      </c>
-      <c r="EJ4" s="2">
-        <v>708</v>
-      </c>
-      <c r="EK4" s="2">
-        <v>1560</v>
-      </c>
-      <c r="EL4" s="2">
-        <v>1360</v>
-      </c>
-      <c r="EM4" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="EN4" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="EO4" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="EP4" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="EQ4" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="ER4" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="ES4" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="ET4" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="EU4" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="EV4" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="EW4" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="EX4" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="EY4" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="EZ4" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="FA4" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="FB4" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="FC4" s="2">
-        <v>16.194700000000001</v>
-      </c>
-      <c r="FD4" s="2">
-        <v>38.258400000000002</v>
-      </c>
-      <c r="FE4" s="2">
-        <v>12.7912</v>
-      </c>
-      <c r="FF4" s="2">
-        <v>6.2257E-2</v>
-      </c>
-      <c r="FG4" s="2">
-        <v>43.0381</v>
-      </c>
-    </row>
-    <row r="5" spans="1:163" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B5" s="2">
-        <v>18</v>
-      </c>
-      <c r="C5" s="2">
-        <v>40</v>
-      </c>
-      <c r="D5" s="2">
-        <v>15</v>
-      </c>
-      <c r="E5" s="2">
-        <v>25</v>
-      </c>
-      <c r="F5" s="2">
-        <v>5</v>
-      </c>
-      <c r="G5" s="2">
-        <v>116</v>
-      </c>
-      <c r="H5" s="2">
-        <v>19.834800000000001</v>
-      </c>
-      <c r="I5" s="2">
-        <v>1.87164</v>
-      </c>
-      <c r="J5" s="2">
-        <v>5.4692800000000004</v>
-      </c>
-      <c r="K5" s="2">
-        <v>3.807E-2</v>
-      </c>
-      <c r="L5" s="2">
-        <v>8.7550699999999999</v>
-      </c>
-      <c r="M5" s="2">
-        <v>-3.5799999999999998E-3</v>
-      </c>
-      <c r="N5" s="2">
-        <v>0.184529</v>
-      </c>
-      <c r="O5" s="2">
-        <v>8.7223400000000009</v>
-      </c>
-      <c r="P5" s="2">
-        <v>7.9472300000000002</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>-3.2100000000000002E-3</v>
-      </c>
-      <c r="R5" s="2">
-        <v>1.93</v>
-      </c>
-      <c r="S5" s="2">
-        <v>0.33704699999999999</v>
-      </c>
-      <c r="T5" s="2">
-        <v>1.6670000000000001E-2</v>
-      </c>
-      <c r="U5" s="2">
-        <v>9.4929999999999997E-3</v>
-      </c>
-      <c r="V5" s="2">
-        <v>4.0082E-2</v>
-      </c>
-      <c r="W5" s="2">
-        <v>0.128252</v>
-      </c>
-      <c r="X5" s="2">
-        <v>42.696300000000001</v>
-      </c>
-      <c r="Y5" s="2">
-        <v>0.223801</v>
-      </c>
-      <c r="Z5" s="2">
-        <v>98.197900000000004</v>
-      </c>
-      <c r="AA5" s="2">
-        <v>42.433799999999998</v>
-      </c>
-      <c r="AB5" s="2">
-        <v>3.12201</v>
-      </c>
-      <c r="AC5" s="2">
-        <v>10.334099999999999</v>
-      </c>
-      <c r="AD5" s="2">
-        <v>5.5641999999999997E-2</v>
-      </c>
-      <c r="AE5" s="2">
-        <v>11.263400000000001</v>
-      </c>
-      <c r="AF5" s="2">
-        <v>-4.5500000000000002E-3</v>
-      </c>
-      <c r="AG5" s="2">
-        <v>0.23827000000000001</v>
-      </c>
-      <c r="AH5" s="2">
-        <v>14.4643</v>
-      </c>
-      <c r="AI5" s="2">
-        <v>11.1198</v>
-      </c>
-      <c r="AJ5" s="2">
-        <v>-3.5899999999999999E-3</v>
-      </c>
-      <c r="AK5" s="2">
-        <v>2.6015999999999999</v>
-      </c>
-      <c r="AL5" s="2">
-        <v>0.40600399999999998</v>
-      </c>
-      <c r="AM5" s="2">
-        <v>3.8197000000000002E-2</v>
-      </c>
-      <c r="AN5" s="2">
-        <v>2.3703999999999999E-2</v>
-      </c>
-      <c r="AO5" s="2">
-        <v>4.0082E-2</v>
-      </c>
-      <c r="AP5" s="2">
-        <v>0.128252</v>
-      </c>
-      <c r="AQ5" s="2">
-        <v>-6.3049999999999995E-2</v>
-      </c>
-      <c r="AR5" s="2">
-        <v>2</v>
-      </c>
-      <c r="AS5" s="2">
-        <v>98.197900000000004</v>
-      </c>
-      <c r="AT5" s="2">
-        <v>22</v>
-      </c>
-      <c r="AU5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AV5" s="2">
-        <v>5.8222500000000004</v>
-      </c>
-      <c r="AW5" s="2">
-        <v>0.32213700000000001</v>
-      </c>
-      <c r="AX5" s="2">
-        <v>1.6711199999999999</v>
-      </c>
-      <c r="AY5" s="2">
-        <v>6.0359999999999997E-3</v>
-      </c>
-      <c r="AZ5" s="2">
-        <v>1.29244</v>
-      </c>
-      <c r="BA5" s="2">
-        <v>-5.0000000000000001E-4</v>
-      </c>
-      <c r="BB5" s="2">
-        <v>2.7691E-2</v>
-      </c>
-      <c r="BC5" s="2">
-        <v>2.9586199999999998</v>
-      </c>
-      <c r="BD5" s="2">
-        <v>1.6347100000000001</v>
-      </c>
-      <c r="BE5" s="2">
-        <v>-1.9000000000000001E-4</v>
-      </c>
-      <c r="BF5" s="2">
-        <v>0.69210400000000005</v>
-      </c>
-      <c r="BG5" s="2">
-        <v>7.1063000000000001E-2</v>
-      </c>
-      <c r="BH5" s="2">
-        <v>4.437E-3</v>
-      </c>
-      <c r="BI5" s="2">
-        <v>2.441E-3</v>
-      </c>
-      <c r="BJ5" s="2">
-        <v>9.3209999999999994E-3</v>
-      </c>
-      <c r="BK5" s="2">
-        <v>5.5655000000000003E-2</v>
-      </c>
-      <c r="BL5" s="2">
-        <v>22</v>
-      </c>
-      <c r="BM5" s="2">
-        <v>1.83043</v>
-      </c>
-      <c r="BN5" s="2"/>
-      <c r="BO5" s="2"/>
-      <c r="BP5" s="2"/>
-      <c r="BQ5" s="2"/>
-      <c r="BR5" s="2"/>
-      <c r="BS5" s="2">
-        <v>8.0540000000000004E-3</v>
-      </c>
-      <c r="BT5" s="2">
-        <v>1.0739E-2</v>
-      </c>
-      <c r="BU5" s="2">
-        <v>7.4520000000000003E-3</v>
-      </c>
-      <c r="BV5" s="2">
-        <v>1.0388E-2</v>
-      </c>
-      <c r="BW5" s="2">
-        <v>1.5370999999999999E-2</v>
-      </c>
-      <c r="BX5" s="2">
-        <v>1.6043999999999999E-2</v>
-      </c>
-      <c r="BY5" s="2">
-        <v>1.4593999999999999E-2</v>
-      </c>
-      <c r="BZ5" s="2">
-        <v>7.4859999999999996E-3</v>
-      </c>
-      <c r="CA5" s="2">
-        <v>9.7890000000000008E-3</v>
-      </c>
-      <c r="CB5" s="2">
-        <v>3.1509000000000002E-2</v>
-      </c>
-      <c r="CC5" s="2">
-        <v>1.2213999999999999E-2</v>
-      </c>
-      <c r="CD5" s="2">
-        <v>1.0463E-2</v>
-      </c>
-      <c r="CE5" s="2">
-        <v>8.9040000000000005E-3</v>
-      </c>
-      <c r="CF5" s="2">
-        <v>9.3449999999999991E-3</v>
-      </c>
-      <c r="CG5" s="2">
-        <v>6.7819999999999998E-3</v>
-      </c>
-      <c r="CH5" s="2">
-        <v>2.7178999999999998E-2</v>
-      </c>
-      <c r="CI5" s="2">
-        <v>0.20632</v>
-      </c>
-      <c r="CJ5" s="2">
-        <v>1.42883</v>
-      </c>
-      <c r="CK5" s="2">
-        <v>0.446849</v>
-      </c>
-      <c r="CL5" s="2">
-        <v>20.846800000000002</v>
-      </c>
-      <c r="CM5" s="2">
-        <v>0.72036199999999995</v>
-      </c>
-      <c r="CN5" s="2">
-        <v>-315.33999999999997</v>
-      </c>
-      <c r="CO5" s="2">
-        <v>7.6812699999999996</v>
-      </c>
-      <c r="CP5" s="2">
-        <v>0.40423999999999999</v>
-      </c>
-      <c r="CQ5" s="2">
-        <v>0.55592699999999995</v>
-      </c>
-      <c r="CR5" s="2">
-        <v>-691.18</v>
-      </c>
-      <c r="CS5" s="2">
-        <v>1.34361</v>
-      </c>
-      <c r="CT5" s="2">
-        <v>3.88002</v>
-      </c>
-      <c r="CU5" s="2">
-        <v>42.4938</v>
-      </c>
-      <c r="CV5" s="2">
-        <v>73.813299999999998</v>
-      </c>
-      <c r="CW5" s="2">
-        <v>14.2134</v>
-      </c>
-      <c r="CX5" s="2">
-        <v>10.000999999999999</v>
-      </c>
-      <c r="CY5" s="2">
-        <v>75.638199999999998</v>
-      </c>
-      <c r="CZ5" s="2">
-        <v>78.454599999999999</v>
-      </c>
-      <c r="DA5" s="2">
-        <v>10.6905</v>
-      </c>
-      <c r="DB5" s="2">
-        <v>25.015000000000001</v>
-      </c>
-      <c r="DC5" s="2">
-        <v>25.05</v>
-      </c>
-      <c r="DD5" s="2">
-        <v>20.350000000000001</v>
-      </c>
-      <c r="DE5" s="2">
-        <v>20.440000000000001</v>
-      </c>
-      <c r="DF5" s="2">
-        <v>30</v>
-      </c>
-      <c r="DG5" s="2">
-        <v>30</v>
-      </c>
-      <c r="DH5" s="2">
-        <v>30</v>
-      </c>
-      <c r="DI5" s="2">
-        <v>30</v>
-      </c>
-      <c r="DJ5" s="2">
-        <v>45</v>
-      </c>
-      <c r="DK5" s="2">
-        <v>30</v>
-      </c>
-      <c r="DL5" s="2">
-        <v>45</v>
-      </c>
-      <c r="DM5" s="2">
-        <v>30</v>
-      </c>
-      <c r="DN5" s="2">
-        <v>20</v>
-      </c>
-      <c r="DO5" s="2">
-        <v>30</v>
-      </c>
-      <c r="DP5" s="2">
-        <v>30</v>
-      </c>
-      <c r="DQ5" s="2">
-        <v>15</v>
-      </c>
-      <c r="DR5" s="2">
-        <v>20</v>
-      </c>
-      <c r="DS5" s="2">
-        <v>15</v>
-      </c>
-      <c r="DT5" s="2">
-        <v>30</v>
-      </c>
-      <c r="DU5" s="2">
-        <v>70</v>
-      </c>
-      <c r="DV5" s="3">
-        <v>45484.724305555559</v>
-      </c>
-      <c r="DW5" s="2">
-        <v>1039</v>
-      </c>
-      <c r="DX5" s="2">
-        <v>1710</v>
-      </c>
-      <c r="DY5" s="2">
-        <v>1545</v>
-      </c>
-      <c r="DZ5" s="2">
-        <v>1713</v>
-      </c>
-      <c r="EA5" s="2">
-        <v>1715</v>
-      </c>
-      <c r="EB5" s="2">
-        <v>472</v>
-      </c>
-      <c r="EC5" s="2">
-        <v>473</v>
-      </c>
-      <c r="ED5" s="2">
-        <v>450</v>
-      </c>
-      <c r="EE5" s="2">
-        <v>1039</v>
-      </c>
-      <c r="EF5" s="2">
-        <v>830</v>
-      </c>
-      <c r="EG5" s="2">
-        <v>1500</v>
-      </c>
-      <c r="EH5" s="2">
-        <v>1524</v>
-      </c>
-      <c r="EI5" s="2">
-        <v>1940</v>
-      </c>
-      <c r="EJ5" s="2">
-        <v>708</v>
-      </c>
-      <c r="EK5" s="2">
-        <v>1560</v>
-      </c>
-      <c r="EL5" s="2">
-        <v>1360</v>
-      </c>
-      <c r="EM5" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="EN5" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="EO5" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="EP5" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="EQ5" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="ER5" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="ES5" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="ET5" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="EU5" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="EV5" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="EW5" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="EX5" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="EY5" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="EZ5" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="FA5" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="FB5" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="FC5" s="2">
-        <v>16.334800000000001</v>
-      </c>
-      <c r="FD5" s="2">
-        <v>38.399799999999999</v>
-      </c>
-      <c r="FE5" s="2">
-        <v>12.812099999999999</v>
-      </c>
-      <c r="FF5" s="2">
-        <v>6.3050999999999996E-2</v>
-      </c>
-      <c r="FG5" s="2">
-        <v>42.696300000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:163" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B6" s="2">
-        <v>18</v>
-      </c>
-      <c r="C6" s="2">
-        <v>40</v>
-      </c>
-      <c r="D6" s="2">
-        <v>15</v>
-      </c>
-      <c r="E6" s="2">
-        <v>25</v>
-      </c>
-      <c r="F6" s="2">
-        <v>5</v>
-      </c>
-      <c r="G6" s="2">
-        <v>117</v>
-      </c>
-      <c r="H6" s="2">
-        <v>24</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0.23017000000000001</v>
-      </c>
-      <c r="J6" s="2">
-        <v>1.0260100000000001</v>
-      </c>
-      <c r="K6" s="2">
-        <v>9.4929999999999997E-3</v>
-      </c>
-      <c r="L6" s="2">
-        <v>5.7914000000000003</v>
-      </c>
-      <c r="M6" s="2">
-        <v>5.5800000000000001E-4</v>
-      </c>
-      <c r="N6" s="2">
-        <v>0.25395400000000001</v>
-      </c>
-      <c r="O6" s="2">
-        <v>9.2808200000000003</v>
-      </c>
-      <c r="P6" s="2">
-        <v>14.7972</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>9.0629999999999999E-3</v>
-      </c>
-      <c r="R6" s="2">
-        <v>0.25834299999999999</v>
-      </c>
-      <c r="S6" s="2">
-        <v>3.0450000000000001E-2</v>
-      </c>
-      <c r="T6" s="2">
-        <v>5.0749999999999997E-3</v>
-      </c>
-      <c r="U6" s="2">
-        <v>9.3290000000000005E-3</v>
-      </c>
-      <c r="V6" s="2">
-        <v>1.2847000000000001E-2</v>
-      </c>
-      <c r="W6" s="2">
-        <v>2.7393000000000001E-2</v>
-      </c>
-      <c r="X6" s="2">
-        <v>44.044800000000002</v>
-      </c>
-      <c r="Y6" s="2">
-        <v>0.223801</v>
-      </c>
-      <c r="Z6" s="2">
-        <v>100.011</v>
-      </c>
-      <c r="AA6" s="2">
-        <v>51.3446</v>
-      </c>
-      <c r="AB6" s="2">
-        <v>0.38393699999999997</v>
-      </c>
-      <c r="AC6" s="2">
-        <v>1.93862</v>
-      </c>
-      <c r="AD6" s="2">
-        <v>1.3875E-2</v>
-      </c>
-      <c r="AE6" s="2">
-        <v>7.4506100000000002</v>
-      </c>
-      <c r="AF6" s="2">
-        <v>7.1000000000000002E-4</v>
-      </c>
-      <c r="AG6" s="2">
-        <v>0.32791500000000001</v>
-      </c>
-      <c r="AH6" s="2">
-        <v>15.3904</v>
-      </c>
-      <c r="AI6" s="2">
-        <v>20.7042</v>
-      </c>
-      <c r="AJ6" s="2">
-        <v>1.0119E-2</v>
-      </c>
-      <c r="AK6" s="2">
-        <v>0.34823999999999999</v>
-      </c>
-      <c r="AL6" s="2">
-        <v>3.6679000000000003E-2</v>
-      </c>
-      <c r="AM6" s="2">
-        <v>1.1629E-2</v>
-      </c>
-      <c r="AN6" s="2">
-        <v>2.3296000000000001E-2</v>
-      </c>
-      <c r="AO6" s="2">
-        <v>1.2847000000000001E-2</v>
-      </c>
-      <c r="AP6" s="2">
-        <v>2.7393000000000001E-2</v>
-      </c>
-      <c r="AQ6" s="2">
-        <v>-1.443E-2</v>
-      </c>
-      <c r="AR6" s="2">
-        <v>2</v>
-      </c>
-      <c r="AS6" s="2">
-        <v>100.011</v>
-      </c>
-      <c r="AT6" s="2">
-        <v>22</v>
-      </c>
-      <c r="AU6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AV6" s="2">
-        <v>6.8292000000000002</v>
-      </c>
-      <c r="AW6" s="2">
-        <v>3.8403E-2</v>
-      </c>
-      <c r="AX6" s="2">
-        <v>0.303896</v>
-      </c>
-      <c r="AY6" s="2">
-        <v>1.459E-3</v>
-      </c>
-      <c r="AZ6" s="2">
-        <v>0.82876499999999997</v>
-      </c>
-      <c r="BA6" s="2">
-        <v>7.6000000000000004E-5</v>
-      </c>
-      <c r="BB6" s="2">
-        <v>3.6942999999999997E-2</v>
-      </c>
-      <c r="BC6" s="2">
-        <v>3.0516800000000002</v>
-      </c>
-      <c r="BD6" s="2">
-        <v>2.95052</v>
-      </c>
-      <c r="BE6" s="2">
-        <v>5.2700000000000002E-4</v>
-      </c>
-      <c r="BF6" s="2">
-        <v>8.9805999999999997E-2</v>
-      </c>
-      <c r="BG6" s="2">
-        <v>6.2230000000000002E-3</v>
-      </c>
-      <c r="BH6" s="2">
-        <v>1.31E-3</v>
-      </c>
-      <c r="BI6" s="2">
-        <v>2.3249999999999998E-3</v>
-      </c>
-      <c r="BJ6" s="2">
-        <v>2.8960000000000001E-3</v>
-      </c>
-      <c r="BK6" s="2">
-        <v>1.1523E-2</v>
-      </c>
-      <c r="BL6" s="2">
-        <v>22</v>
-      </c>
-      <c r="BM6" s="2">
-        <v>1.7743899999999999</v>
-      </c>
-      <c r="BN6" s="2"/>
-      <c r="BO6" s="2"/>
-      <c r="BP6" s="2"/>
-      <c r="BQ6" s="2"/>
-      <c r="BR6" s="2"/>
-      <c r="BS6" s="2">
-        <v>7.8849999999999996E-3</v>
-      </c>
-      <c r="BT6" s="2">
-        <v>1.0871E-2</v>
-      </c>
-      <c r="BU6" s="2">
-        <v>7.3839999999999999E-3</v>
-      </c>
-      <c r="BV6" s="2">
-        <v>1.0560999999999999E-2</v>
-      </c>
-      <c r="BW6" s="2">
-        <v>1.5433000000000001E-2</v>
-      </c>
-      <c r="BX6" s="2">
-        <v>1.6083E-2</v>
-      </c>
-      <c r="BY6" s="2">
-        <v>1.4682000000000001E-2</v>
-      </c>
-      <c r="BZ6" s="2">
-        <v>7.4000000000000003E-3</v>
-      </c>
-      <c r="CA6" s="2">
-        <v>9.8519999999999996E-3</v>
-      </c>
-      <c r="CB6" s="2">
-        <v>3.1898999999999997E-2</v>
-      </c>
-      <c r="CC6" s="2">
-        <v>1.2159E-2</v>
-      </c>
-      <c r="CD6" s="2">
-        <v>1.0315E-2</v>
-      </c>
-      <c r="CE6" s="2">
-        <v>8.8880000000000001E-3</v>
-      </c>
-      <c r="CF6" s="2">
-        <v>9.3310000000000008E-3</v>
-      </c>
-      <c r="CG6" s="2">
-        <v>6.7669999999999996E-3</v>
-      </c>
-      <c r="CH6" s="2">
-        <v>2.6957999999999999E-2</v>
-      </c>
-      <c r="CI6" s="2">
-        <v>0.18340500000000001</v>
-      </c>
-      <c r="CJ6" s="2">
-        <v>5.16831</v>
-      </c>
-      <c r="CK6" s="2">
-        <v>1.12154</v>
-      </c>
-      <c r="CL6" s="2">
-        <v>80.225700000000003</v>
-      </c>
-      <c r="CM6" s="2">
-        <v>0.89574200000000004</v>
-      </c>
-      <c r="CN6" s="2">
-        <v>2034.58</v>
-      </c>
-      <c r="CO6" s="2">
-        <v>6.0866400000000001</v>
-      </c>
-      <c r="CP6" s="2">
-        <v>0.38697799999999999</v>
-      </c>
-      <c r="CQ6" s="2">
-        <v>0.40652300000000002</v>
-      </c>
-      <c r="CR6" s="2">
-        <v>251.16</v>
-      </c>
-      <c r="CS6" s="2">
-        <v>4.7924699999999998</v>
-      </c>
-      <c r="CT6" s="2">
-        <v>26.176600000000001</v>
-      </c>
-      <c r="CU6" s="2">
-        <v>128.73599999999999</v>
-      </c>
-      <c r="CV6" s="2">
-        <v>74.926699999999997</v>
-      </c>
-      <c r="CW6" s="2">
-        <v>39.622100000000003</v>
-      </c>
-      <c r="CX6" s="2">
-        <v>45.112699999999997</v>
-      </c>
-      <c r="CY6" s="2">
-        <v>75.135400000000004</v>
-      </c>
-      <c r="CZ6" s="2">
-        <v>78.433999999999997</v>
-      </c>
-      <c r="DA6" s="2">
-        <v>10.6905</v>
-      </c>
-      <c r="DB6" s="2">
-        <v>25.02</v>
-      </c>
-      <c r="DC6" s="2">
-        <v>25.06</v>
-      </c>
-      <c r="DD6" s="2">
-        <v>20.385000000000002</v>
-      </c>
-      <c r="DE6" s="2">
-        <v>20.53</v>
-      </c>
-      <c r="DF6" s="2">
-        <v>30</v>
-      </c>
-      <c r="DG6" s="2">
-        <v>30</v>
-      </c>
-      <c r="DH6" s="2">
-        <v>30</v>
-      </c>
-      <c r="DI6" s="2">
-        <v>30</v>
-      </c>
-      <c r="DJ6" s="2">
-        <v>45</v>
-      </c>
-      <c r="DK6" s="2">
-        <v>30</v>
-      </c>
-      <c r="DL6" s="2">
-        <v>45</v>
-      </c>
-      <c r="DM6" s="2">
-        <v>30</v>
-      </c>
-      <c r="DN6" s="2">
-        <v>20</v>
-      </c>
-      <c r="DO6" s="2">
-        <v>30</v>
-      </c>
-      <c r="DP6" s="2">
-        <v>30</v>
-      </c>
-      <c r="DQ6" s="2">
-        <v>15</v>
-      </c>
-      <c r="DR6" s="2">
-        <v>20</v>
-      </c>
-      <c r="DS6" s="2">
-        <v>15</v>
-      </c>
-      <c r="DT6" s="2">
-        <v>30</v>
-      </c>
-      <c r="DU6" s="2">
-        <v>70</v>
-      </c>
-      <c r="DV6" s="3">
-        <v>45484.726388888892</v>
-      </c>
-      <c r="DW6" s="2">
-        <v>1039</v>
-      </c>
-      <c r="DX6" s="2">
-        <v>1710</v>
-      </c>
-      <c r="DY6" s="2">
-        <v>1545</v>
-      </c>
-      <c r="DZ6" s="2">
-        <v>1713</v>
-      </c>
-      <c r="EA6" s="2">
-        <v>1715</v>
-      </c>
-      <c r="EB6" s="2">
-        <v>472</v>
-      </c>
-      <c r="EC6" s="2">
-        <v>473</v>
-      </c>
-      <c r="ED6" s="2">
-        <v>450</v>
-      </c>
-      <c r="EE6" s="2">
-        <v>1039</v>
-      </c>
-      <c r="EF6" s="2">
-        <v>830</v>
-      </c>
-      <c r="EG6" s="2">
-        <v>1500</v>
-      </c>
-      <c r="EH6" s="2">
-        <v>1524</v>
-      </c>
-      <c r="EI6" s="2">
-        <v>1940</v>
-      </c>
-      <c r="EJ6" s="2">
-        <v>708</v>
-      </c>
-      <c r="EK6" s="2">
-        <v>1560</v>
-      </c>
-      <c r="EL6" s="2">
-        <v>1360</v>
-      </c>
-      <c r="EM6" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="EN6" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="EO6" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="EP6" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="EQ6" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="ER6" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="ES6" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="ET6" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="EU6" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="EV6" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="EW6" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="EX6" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="EY6" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="EZ6" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="FA6" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="FB6" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="FC6" s="2">
-        <v>15.9155</v>
-      </c>
-      <c r="FD6" s="2">
-        <v>37.929900000000004</v>
-      </c>
-      <c r="FE6" s="2">
-        <v>12.759499999999999</v>
-      </c>
-      <c r="FF6" s="2">
-        <v>1.4434000000000001E-2</v>
-      </c>
-      <c r="FG6" s="2">
-        <v>44.044800000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:163" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B7" s="2">
-        <v>18</v>
-      </c>
-      <c r="C7" s="2">
-        <v>40</v>
-      </c>
-      <c r="D7" s="2">
-        <v>15</v>
-      </c>
-      <c r="E7" s="2">
-        <v>25</v>
-      </c>
-      <c r="F7" s="2">
-        <v>5</v>
-      </c>
-      <c r="G7" s="2">
-        <v>118</v>
-      </c>
-      <c r="H7" s="2">
-        <v>24.563700000000001</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0.188328</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0.82537099999999997</v>
-      </c>
-      <c r="K7" s="2">
-        <v>-3.7000000000000002E-3</v>
-      </c>
-      <c r="L7" s="2">
-        <v>12.2532</v>
-      </c>
-      <c r="M7" s="2">
-        <v>-2.0879999999999999E-2</v>
-      </c>
-      <c r="N7" s="2">
-        <v>0.53874599999999995</v>
-      </c>
-      <c r="O7" s="2">
-        <v>15.530799999999999</v>
-      </c>
-      <c r="P7" s="2">
-        <v>0.946488</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>-2.2899999999999999E-3</v>
-      </c>
-      <c r="R7" s="2">
-        <v>1.2642E-2</v>
-      </c>
-      <c r="S7" s="2">
-        <v>5.0460000000000001E-3</v>
-      </c>
-      <c r="T7" s="2">
-        <v>8.6700000000000006E-3</v>
-      </c>
-      <c r="U7" s="2">
-        <v>5.7400000000000003E-3</v>
-      </c>
-      <c r="V7" s="2">
-        <v>6.5630000000000003E-3</v>
-      </c>
-      <c r="W7" s="2">
-        <v>-3.1289999999999998E-2</v>
-      </c>
-      <c r="X7" s="2">
-        <v>44.921399999999998</v>
-      </c>
-      <c r="Y7" s="2">
-        <v>0.223801</v>
-      </c>
-      <c r="Z7" s="2">
-        <v>99.972300000000004</v>
-      </c>
-      <c r="AA7" s="2">
-        <v>52.5505</v>
-      </c>
-      <c r="AB7" s="2">
-        <v>0.31414199999999998</v>
-      </c>
-      <c r="AC7" s="2">
-        <v>1.55952</v>
-      </c>
-      <c r="AD7" s="2">
-        <v>-5.4099999999999999E-3</v>
-      </c>
-      <c r="AE7" s="2">
-        <v>15.7637</v>
-      </c>
-      <c r="AF7" s="2">
-        <v>-2.657E-2</v>
-      </c>
-      <c r="AG7" s="2">
-        <v>0.69564899999999996</v>
-      </c>
-      <c r="AH7" s="2">
-        <v>25.7547</v>
-      </c>
-      <c r="AI7" s="2">
-        <v>1.32433</v>
-      </c>
-      <c r="AJ7" s="2">
-        <v>-2.5600000000000002E-3</v>
-      </c>
-      <c r="AK7" s="2">
-        <v>1.7042000000000002E-2</v>
-      </c>
-      <c r="AL7" s="2">
-        <v>6.0780000000000001E-3</v>
-      </c>
-      <c r="AM7" s="2">
-        <v>1.9865000000000001E-2</v>
-      </c>
-      <c r="AN7" s="2">
-        <v>1.4331999999999999E-2</v>
-      </c>
-      <c r="AO7" s="2">
-        <v>6.5630000000000003E-3</v>
-      </c>
-      <c r="AP7" s="2">
-        <v>-3.1289999999999998E-2</v>
-      </c>
-      <c r="AQ7" s="2">
-        <v>1.1703E-2</v>
-      </c>
-      <c r="AR7" s="2">
-        <v>2</v>
-      </c>
-      <c r="AS7" s="2">
-        <v>99.972300000000004</v>
-      </c>
-      <c r="AT7" s="2">
-        <v>22</v>
-      </c>
-      <c r="AU7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AV7" s="2">
-        <v>6.8531899999999997</v>
-      </c>
-      <c r="AW7" s="2">
-        <v>3.0807999999999999E-2</v>
-      </c>
-      <c r="AX7" s="2">
-        <v>0.23969799999999999</v>
-      </c>
-      <c r="AY7" s="2">
-        <v>-5.5999999999999995E-4</v>
-      </c>
-      <c r="AZ7" s="2">
-        <v>1.7192499999999999</v>
-      </c>
-      <c r="BA7" s="2">
-        <v>-2.7899999999999999E-3</v>
-      </c>
-      <c r="BB7" s="2">
-        <v>7.6841999999999994E-2</v>
-      </c>
-      <c r="BC7" s="2">
-        <v>5.0071199999999996</v>
-      </c>
-      <c r="BD7" s="2">
-        <v>0.18504499999999999</v>
-      </c>
-      <c r="BE7" s="2">
-        <v>-1.2999999999999999E-4</v>
-      </c>
-      <c r="BF7" s="2">
-        <v>4.3090000000000003E-3</v>
-      </c>
-      <c r="BG7" s="2">
-        <v>1.011E-3</v>
-      </c>
-      <c r="BH7" s="2">
-        <v>2.1930000000000001E-3</v>
-      </c>
-      <c r="BI7" s="2">
-        <v>1.403E-3</v>
-      </c>
-      <c r="BJ7" s="2">
-        <v>1.451E-3</v>
-      </c>
-      <c r="BK7" s="2">
-        <v>-1.291E-2</v>
-      </c>
-      <c r="BL7" s="2">
-        <v>22</v>
-      </c>
-      <c r="BM7" s="2">
-        <v>1.73977</v>
-      </c>
-      <c r="BN7" s="2"/>
-      <c r="BO7" s="2"/>
-      <c r="BP7" s="2"/>
-      <c r="BQ7" s="2"/>
-      <c r="BR7" s="2"/>
-      <c r="BS7" s="2">
-        <v>8.0029999999999997E-3</v>
-      </c>
-      <c r="BT7" s="2">
-        <v>1.0515E-2</v>
-      </c>
-      <c r="BU7" s="2">
-        <v>7.5630000000000003E-3</v>
-      </c>
-      <c r="BV7" s="2">
-        <v>1.0050999999999999E-2</v>
-      </c>
-      <c r="BW7" s="2">
-        <v>1.5219E-2</v>
-      </c>
-      <c r="BX7" s="2">
-        <v>1.5923E-2</v>
-      </c>
-      <c r="BY7" s="2">
-        <v>1.4453000000000001E-2</v>
-      </c>
-      <c r="BZ7" s="2">
-        <v>7.3460000000000001E-3</v>
-      </c>
-      <c r="CA7" s="2">
-        <v>9.7590000000000003E-3</v>
-      </c>
-      <c r="CB7" s="2">
-        <v>3.0901999999999999E-2</v>
-      </c>
-      <c r="CC7" s="2">
-        <v>1.2043E-2</v>
-      </c>
-      <c r="CD7" s="2">
-        <v>1.064E-2</v>
-      </c>
-      <c r="CE7" s="2">
-        <v>8.9990000000000001E-3</v>
-      </c>
-      <c r="CF7" s="2">
-        <v>9.4190000000000003E-3</v>
-      </c>
-      <c r="CG7" s="2">
-        <v>6.8250000000000003E-3</v>
-      </c>
-      <c r="CH7" s="2">
-        <v>2.6131999999999999E-2</v>
-      </c>
-      <c r="CI7" s="2">
-        <v>0.18534700000000001</v>
-      </c>
-      <c r="CJ7" s="2">
-        <v>5.8264100000000001</v>
-      </c>
-      <c r="CK7" s="2">
-        <v>1.3202499999999999</v>
-      </c>
-      <c r="CL7" s="2">
-        <v>-190.28</v>
-      </c>
-      <c r="CM7" s="2">
-        <v>0.60577899999999996</v>
-      </c>
-      <c r="CN7" s="2">
-        <v>-52.82</v>
-      </c>
-      <c r="CO7" s="2">
-        <v>3.6129600000000002</v>
-      </c>
-      <c r="CP7" s="2">
-        <v>0.29857499999999998</v>
-      </c>
-      <c r="CQ7" s="2">
-        <v>1.7557700000000001</v>
-      </c>
-      <c r="CR7" s="2">
-        <v>-952</v>
-      </c>
-      <c r="CS7" s="2">
-        <v>69.141499999999994</v>
-      </c>
-      <c r="CT7" s="2">
-        <v>151.40899999999999</v>
-      </c>
-      <c r="CU7" s="2">
-        <v>78.347099999999998</v>
-      </c>
-      <c r="CV7" s="2">
-        <v>120.369</v>
-      </c>
-      <c r="CW7" s="2">
-        <v>75.967100000000002</v>
-      </c>
-      <c r="CX7" s="2">
-        <v>-37.569000000000003</v>
-      </c>
-      <c r="CY7" s="2">
-        <v>74.9358</v>
-      </c>
-      <c r="CZ7" s="2">
-        <v>78.205200000000005</v>
-      </c>
-      <c r="DA7" s="2">
-        <v>10.6905</v>
-      </c>
-      <c r="DB7" s="2">
-        <v>25.02</v>
-      </c>
-      <c r="DC7" s="2">
-        <v>25.04</v>
-      </c>
-      <c r="DD7" s="2">
-        <v>20.364999999999998</v>
-      </c>
-      <c r="DE7" s="2">
-        <v>20.49</v>
-      </c>
-      <c r="DF7" s="2">
-        <v>30</v>
-      </c>
-      <c r="DG7" s="2">
-        <v>30</v>
-      </c>
-      <c r="DH7" s="2">
-        <v>30</v>
-      </c>
-      <c r="DI7" s="2">
-        <v>30</v>
-      </c>
-      <c r="DJ7" s="2">
-        <v>45</v>
-      </c>
-      <c r="DK7" s="2">
-        <v>30</v>
-      </c>
-      <c r="DL7" s="2">
-        <v>45</v>
-      </c>
-      <c r="DM7" s="2">
-        <v>30</v>
-      </c>
-      <c r="DN7" s="2">
-        <v>20</v>
-      </c>
-      <c r="DO7" s="2">
-        <v>30</v>
-      </c>
-      <c r="DP7" s="2">
-        <v>30</v>
-      </c>
-      <c r="DQ7" s="2">
-        <v>15</v>
-      </c>
-      <c r="DR7" s="2">
-        <v>20</v>
-      </c>
-      <c r="DS7" s="2">
-        <v>15</v>
-      </c>
-      <c r="DT7" s="2">
-        <v>30</v>
-      </c>
-      <c r="DU7" s="2">
-        <v>70</v>
-      </c>
-      <c r="DV7" s="3">
-        <v>45484.728472222225</v>
-      </c>
-      <c r="DW7" s="2">
-        <v>1039</v>
-      </c>
-      <c r="DX7" s="2">
-        <v>1710</v>
-      </c>
-      <c r="DY7" s="2">
-        <v>1545</v>
-      </c>
-      <c r="DZ7" s="2">
-        <v>1713</v>
-      </c>
-      <c r="EA7" s="2">
-        <v>1715</v>
-      </c>
-      <c r="EB7" s="2">
-        <v>472</v>
-      </c>
-      <c r="EC7" s="2">
-        <v>473</v>
-      </c>
-      <c r="ED7" s="2">
-        <v>450</v>
-      </c>
-      <c r="EE7" s="2">
-        <v>1039</v>
-      </c>
-      <c r="EF7" s="2">
-        <v>830</v>
-      </c>
-      <c r="EG7" s="2">
-        <v>1500</v>
-      </c>
-      <c r="EH7" s="2">
-        <v>1524</v>
-      </c>
-      <c r="EI7" s="2">
-        <v>1940</v>
-      </c>
-      <c r="EJ7" s="2">
-        <v>708</v>
-      </c>
-      <c r="EK7" s="2">
-        <v>1560</v>
-      </c>
-      <c r="EL7" s="2">
-        <v>1360</v>
-      </c>
-      <c r="EM7" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="EN7" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="EO7" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="EP7" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="EQ7" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="ER7" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="ES7" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="ET7" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="EU7" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="EV7" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="EW7" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="EX7" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="EY7" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="EZ7" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="FA7" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="FB7" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="FC7" s="2">
-        <v>15.857200000000001</v>
-      </c>
-      <c r="FD7" s="2">
-        <v>37.845700000000001</v>
-      </c>
-      <c r="FE7" s="2">
-        <v>12.555400000000001</v>
-      </c>
-      <c r="FF7" s="2">
-        <v>-1.17E-2</v>
-      </c>
-      <c r="FG7" s="2">
-        <v>44.921399999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:163" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B8" s="2">
-        <v>18</v>
-      </c>
-      <c r="C8" s="2">
-        <v>40</v>
-      </c>
-      <c r="D8" s="2">
-        <v>15</v>
-      </c>
-      <c r="E8" s="2">
-        <v>25</v>
-      </c>
-      <c r="F8" s="2">
-        <v>5</v>
-      </c>
-      <c r="G8" s="2">
-        <v>119</v>
-      </c>
-      <c r="H8" s="2">
-        <v>24.674199999999999</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0.18399799999999999</v>
-      </c>
-      <c r="J8" s="2">
-        <v>0.85994599999999999</v>
-      </c>
-      <c r="K8" s="2">
-        <v>7.1100000000000004E-4</v>
-      </c>
-      <c r="L8" s="2">
-        <v>12.318899999999999</v>
-      </c>
-      <c r="M8" s="2">
-        <v>-4.2000000000000002E-4</v>
-      </c>
-      <c r="N8" s="2">
-        <v>0.55798400000000004</v>
-      </c>
-      <c r="O8" s="2">
-        <v>15.189399999999999</v>
-      </c>
-      <c r="P8" s="2">
-        <v>0.97037399999999996</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>2.5159000000000001E-2</v>
-      </c>
-      <c r="R8" s="2">
-        <v>3.8607000000000002E-2</v>
-      </c>
-      <c r="S8" s="2">
-        <v>3.3314999999999997E-2</v>
-      </c>
-      <c r="T8" s="2">
-        <v>5.3699999999999998E-3</v>
-      </c>
-      <c r="U8" s="2">
-        <v>6.8580000000000004E-3</v>
-      </c>
-      <c r="V8" s="2">
-        <v>6.9560000000000004E-3</v>
-      </c>
-      <c r="W8" s="2">
-        <v>-3.066E-2</v>
-      </c>
-      <c r="X8" s="2">
-        <v>44.9071</v>
-      </c>
-      <c r="Y8" s="2">
-        <v>0.223801</v>
-      </c>
-      <c r="Z8" s="2">
-        <v>99.971500000000006</v>
-      </c>
-      <c r="AA8" s="2">
-        <v>52.786900000000003</v>
-      </c>
-      <c r="AB8" s="2">
-        <v>0.306919</v>
-      </c>
-      <c r="AC8" s="2">
-        <v>1.6248499999999999</v>
-      </c>
-      <c r="AD8" s="2">
-        <v>1.039E-3</v>
-      </c>
-      <c r="AE8" s="2">
-        <v>15.8482</v>
-      </c>
-      <c r="AF8" s="2">
-        <v>-5.4000000000000001E-4</v>
-      </c>
-      <c r="AG8" s="2">
-        <v>0.72048999999999996</v>
-      </c>
-      <c r="AH8" s="2">
-        <v>25.188600000000001</v>
-      </c>
-      <c r="AI8" s="2">
-        <v>1.35775</v>
-      </c>
-      <c r="AJ8" s="2">
-        <v>2.809E-2</v>
-      </c>
-      <c r="AK8" s="2">
-        <v>5.2040999999999997E-2</v>
-      </c>
-      <c r="AL8" s="2">
-        <v>4.0131E-2</v>
-      </c>
-      <c r="AM8" s="2">
-        <v>1.2305E-2</v>
-      </c>
-      <c r="AN8" s="2">
-        <v>1.7124E-2</v>
-      </c>
-      <c r="AO8" s="2">
-        <v>6.9560000000000004E-3</v>
-      </c>
-      <c r="AP8" s="2">
-        <v>-3.066E-2</v>
-      </c>
-      <c r="AQ8" s="2">
-        <v>1.1337E-2</v>
-      </c>
-      <c r="AR8" s="2">
-        <v>2</v>
-      </c>
-      <c r="AS8" s="2">
-        <v>99.971500000000006</v>
-      </c>
-      <c r="AT8" s="2">
-        <v>22</v>
-      </c>
-      <c r="AU8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AV8" s="2">
-        <v>6.8862199999999998</v>
-      </c>
-      <c r="AW8" s="2">
-        <v>3.0110000000000001E-2</v>
-      </c>
-      <c r="AX8" s="2">
-        <v>0.24981900000000001</v>
-      </c>
-      <c r="AY8" s="2">
-        <v>1.07E-4</v>
-      </c>
-      <c r="AZ8" s="2">
-        <v>1.72902</v>
-      </c>
-      <c r="BA8" s="2">
-        <v>-6.0000000000000002E-5</v>
-      </c>
-      <c r="BB8" s="2">
-        <v>7.9612000000000002E-2</v>
-      </c>
-      <c r="BC8" s="2">
-        <v>4.8986200000000002</v>
-      </c>
-      <c r="BD8" s="2">
-        <v>0.189775</v>
-      </c>
-      <c r="BE8" s="2">
-        <v>1.436E-3</v>
-      </c>
-      <c r="BF8" s="2">
-        <v>1.3162999999999999E-2</v>
-      </c>
-      <c r="BG8" s="2">
-        <v>6.6779999999999999E-3</v>
-      </c>
-      <c r="BH8" s="2">
-        <v>1.359E-3</v>
-      </c>
-      <c r="BI8" s="2">
-        <v>1.6770000000000001E-3</v>
-      </c>
-      <c r="BJ8" s="2">
-        <v>1.5380000000000001E-3</v>
-      </c>
-      <c r="BK8" s="2">
-        <v>-1.265E-2</v>
-      </c>
-      <c r="BL8" s="2">
-        <v>22</v>
-      </c>
-      <c r="BM8" s="2">
-        <v>1.7403200000000001</v>
-      </c>
-      <c r="BN8" s="2"/>
-      <c r="BO8" s="2"/>
-      <c r="BP8" s="2"/>
-      <c r="BQ8" s="2"/>
-      <c r="BR8" s="2"/>
-      <c r="BS8" s="2">
-        <v>8.012E-3</v>
-      </c>
-      <c r="BT8" s="2">
-        <v>1.0531E-2</v>
-      </c>
-      <c r="BU8" s="2">
-        <v>7.5669999999999999E-3</v>
-      </c>
-      <c r="BV8" s="2">
-        <v>1.0064999999999999E-2</v>
-      </c>
-      <c r="BW8" s="2">
-        <v>1.5242E-2</v>
-      </c>
-      <c r="BX8" s="2">
-        <v>1.5949000000000001E-2</v>
-      </c>
-      <c r="BY8" s="2">
-        <v>1.4468999999999999E-2</v>
-      </c>
-      <c r="BZ8" s="2">
-        <v>7.3660000000000002E-3</v>
-      </c>
-      <c r="CA8" s="2">
-        <v>9.7719999999999994E-3</v>
-      </c>
-      <c r="CB8" s="2">
-        <v>3.0948E-2</v>
-      </c>
-      <c r="CC8" s="2">
-        <v>1.2083E-2</v>
-      </c>
-      <c r="CD8" s="2">
-        <v>1.0654E-2</v>
-      </c>
-      <c r="CE8" s="2">
-        <v>9.0080000000000004E-3</v>
-      </c>
-      <c r="CF8" s="2">
-        <v>9.4299999999999991E-3</v>
-      </c>
-      <c r="CG8" s="2">
-        <v>6.8329999999999997E-3</v>
-      </c>
-      <c r="CH8" s="2">
-        <v>2.5826999999999999E-2</v>
-      </c>
-      <c r="CI8" s="2">
-        <v>0.184888</v>
-      </c>
-      <c r="CJ8" s="2">
-        <v>5.9314099999999996</v>
-      </c>
-      <c r="CK8" s="2">
-        <v>1.2867200000000001</v>
-      </c>
-      <c r="CL8" s="2">
-        <v>1001.55</v>
-      </c>
-      <c r="CM8" s="2">
-        <v>0.60428300000000001</v>
-      </c>
-      <c r="CN8" s="2">
-        <v>-2664.4</v>
-      </c>
-      <c r="CO8" s="2">
-        <v>3.53498</v>
-      </c>
-      <c r="CP8" s="2">
-        <v>0.30235899999999999</v>
-      </c>
-      <c r="CQ8" s="2">
-        <v>1.7311300000000001</v>
-      </c>
-      <c r="CR8" s="2">
-        <v>89.278800000000004</v>
-      </c>
-      <c r="CS8" s="2">
-        <v>23.873899999999999</v>
-      </c>
-      <c r="CT8" s="2">
-        <v>24.856100000000001</v>
-      </c>
-      <c r="CU8" s="2">
-        <v>123.621</v>
-      </c>
-      <c r="CV8" s="2">
-        <v>101.535</v>
-      </c>
-      <c r="CW8" s="2">
-        <v>71.904399999999995</v>
-      </c>
-      <c r="CX8" s="2">
-        <v>-37.9</v>
-      </c>
-      <c r="CY8" s="2">
-        <v>74.6203</v>
-      </c>
-      <c r="CZ8" s="2">
-        <v>78.483599999999996</v>
-      </c>
-      <c r="DA8" s="2">
-        <v>10.6905</v>
-      </c>
-      <c r="DB8" s="2">
-        <v>25</v>
-      </c>
-      <c r="DC8" s="2">
-        <v>25.04</v>
-      </c>
-      <c r="DD8" s="2">
-        <v>20.43</v>
-      </c>
-      <c r="DE8" s="2">
-        <v>20.55</v>
-      </c>
-      <c r="DF8" s="2">
-        <v>30</v>
-      </c>
-      <c r="DG8" s="2">
-        <v>30</v>
-      </c>
-      <c r="DH8" s="2">
-        <v>30</v>
-      </c>
-      <c r="DI8" s="2">
-        <v>30</v>
-      </c>
-      <c r="DJ8" s="2">
-        <v>45</v>
-      </c>
-      <c r="DK8" s="2">
-        <v>30</v>
-      </c>
-      <c r="DL8" s="2">
-        <v>45</v>
-      </c>
-      <c r="DM8" s="2">
-        <v>30</v>
-      </c>
-      <c r="DN8" s="2">
-        <v>20</v>
-      </c>
-      <c r="DO8" s="2">
-        <v>30</v>
-      </c>
-      <c r="DP8" s="2">
-        <v>30</v>
-      </c>
-      <c r="DQ8" s="2">
-        <v>15</v>
-      </c>
-      <c r="DR8" s="2">
-        <v>20</v>
-      </c>
-      <c r="DS8" s="2">
-        <v>15</v>
-      </c>
-      <c r="DT8" s="2">
-        <v>30</v>
-      </c>
-      <c r="DU8" s="2">
-        <v>70</v>
-      </c>
-      <c r="DV8" s="3">
-        <v>45484.730555555558</v>
-      </c>
-      <c r="DW8" s="2">
-        <v>1039</v>
-      </c>
-      <c r="DX8" s="2">
-        <v>1710</v>
-      </c>
-      <c r="DY8" s="2">
-        <v>1545</v>
-      </c>
-      <c r="DZ8" s="2">
-        <v>1713</v>
-      </c>
-      <c r="EA8" s="2">
-        <v>1715</v>
-      </c>
-      <c r="EB8" s="2">
-        <v>472</v>
-      </c>
-      <c r="EC8" s="2">
-        <v>473</v>
-      </c>
-      <c r="ED8" s="2">
-        <v>450</v>
-      </c>
-      <c r="EE8" s="2">
-        <v>1039</v>
-      </c>
-      <c r="EF8" s="2">
-        <v>830</v>
-      </c>
-      <c r="EG8" s="2">
-        <v>1500</v>
-      </c>
-      <c r="EH8" s="2">
-        <v>1524</v>
-      </c>
-      <c r="EI8" s="2">
-        <v>1940</v>
-      </c>
-      <c r="EJ8" s="2">
-        <v>708</v>
-      </c>
-      <c r="EK8" s="2">
-        <v>1560</v>
-      </c>
-      <c r="EL8" s="2">
-        <v>1360</v>
-      </c>
-      <c r="EM8" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="EN8" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="EO8" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="EP8" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="EQ8" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="ER8" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="ES8" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="ET8" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="EU8" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="EV8" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="EW8" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="EX8" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="EY8" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="EZ8" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="FA8" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="FB8" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="FC8" s="2">
-        <v>15.8279</v>
-      </c>
-      <c r="FD8" s="2">
-        <v>37.816699999999997</v>
-      </c>
-      <c r="FE8" s="2">
-        <v>12.5893</v>
-      </c>
-      <c r="FF8" s="2">
-        <v>-1.1339999999999999E-2</v>
-      </c>
-      <c r="FG8" s="2">
-        <v>44.9071</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE3161D4-7D8B-3E4D-B708-39453DD31B2A}">
   <sheetPr>
     <tabColor theme="5"/>
@@ -61018,6 +57161,3882 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40327870-7A52-5A4E-AC9E-363DA766ACA9}">
+  <sheetPr>
+    <tabColor theme="5"/>
+  </sheetPr>
+  <dimension ref="A1:FG8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:163" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CP1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CR1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CS1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CU1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CY1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CZ1" t="s">
+        <v>102</v>
+      </c>
+      <c r="DA1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DB1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DC1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DF1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DH1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DI1" t="s">
+        <v>111</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DO1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DP1" t="s">
+        <v>118</v>
+      </c>
+      <c r="DQ1" t="s">
+        <v>119</v>
+      </c>
+      <c r="DR1" t="s">
+        <v>120</v>
+      </c>
+      <c r="DS1" t="s">
+        <v>121</v>
+      </c>
+      <c r="DT1" t="s">
+        <v>122</v>
+      </c>
+      <c r="DU1" t="s">
+        <v>123</v>
+      </c>
+      <c r="DV1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="DW1" t="s">
+        <v>125</v>
+      </c>
+      <c r="DX1" t="s">
+        <v>126</v>
+      </c>
+      <c r="DY1" t="s">
+        <v>127</v>
+      </c>
+      <c r="DZ1" t="s">
+        <v>128</v>
+      </c>
+      <c r="EA1" t="s">
+        <v>129</v>
+      </c>
+      <c r="EB1" t="s">
+        <v>130</v>
+      </c>
+      <c r="EC1" t="s">
+        <v>131</v>
+      </c>
+      <c r="ED1" t="s">
+        <v>132</v>
+      </c>
+      <c r="EE1" t="s">
+        <v>133</v>
+      </c>
+      <c r="EF1" t="s">
+        <v>134</v>
+      </c>
+      <c r="EG1" t="s">
+        <v>135</v>
+      </c>
+      <c r="EH1" t="s">
+        <v>136</v>
+      </c>
+      <c r="EI1" t="s">
+        <v>137</v>
+      </c>
+      <c r="EJ1" t="s">
+        <v>138</v>
+      </c>
+      <c r="EK1" t="s">
+        <v>139</v>
+      </c>
+      <c r="EL1" t="s">
+        <v>140</v>
+      </c>
+      <c r="EM1" t="s">
+        <v>141</v>
+      </c>
+      <c r="EN1" t="s">
+        <v>142</v>
+      </c>
+      <c r="EO1" t="s">
+        <v>143</v>
+      </c>
+      <c r="EP1" t="s">
+        <v>144</v>
+      </c>
+      <c r="EQ1" t="s">
+        <v>145</v>
+      </c>
+      <c r="ER1" t="s">
+        <v>146</v>
+      </c>
+      <c r="ES1" t="s">
+        <v>147</v>
+      </c>
+      <c r="ET1" t="s">
+        <v>148</v>
+      </c>
+      <c r="EU1" t="s">
+        <v>149</v>
+      </c>
+      <c r="EV1" t="s">
+        <v>150</v>
+      </c>
+      <c r="EW1" t="s">
+        <v>151</v>
+      </c>
+      <c r="EX1" t="s">
+        <v>152</v>
+      </c>
+      <c r="EY1" t="s">
+        <v>153</v>
+      </c>
+      <c r="EZ1" t="s">
+        <v>154</v>
+      </c>
+      <c r="FA1" t="s">
+        <v>155</v>
+      </c>
+      <c r="FB1" t="s">
+        <v>156</v>
+      </c>
+      <c r="FC1" t="s">
+        <v>157</v>
+      </c>
+      <c r="FD1" t="s">
+        <v>158</v>
+      </c>
+      <c r="FE1" t="s">
+        <v>159</v>
+      </c>
+      <c r="FF1" t="s">
+        <v>160</v>
+      </c>
+      <c r="FG1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:163" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2" s="2">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2">
+        <v>40</v>
+      </c>
+      <c r="D2" s="2">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2">
+        <v>25</v>
+      </c>
+      <c r="F2" s="2">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2">
+        <v>113</v>
+      </c>
+      <c r="H2" s="2">
+        <v>20.0395</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1.84388</v>
+      </c>
+      <c r="J2" s="2">
+        <v>5.2299100000000003</v>
+      </c>
+      <c r="K2" s="2">
+        <v>6.8599999999999998E-3</v>
+      </c>
+      <c r="L2" s="2">
+        <v>9.5874699999999997</v>
+      </c>
+      <c r="M2" s="2">
+        <v>-3.8999999999999998E-3</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0.222745</v>
+      </c>
+      <c r="O2" s="2">
+        <v>8.2879699999999996</v>
+      </c>
+      <c r="P2" s="2">
+        <v>7.9879899999999999</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>1.4307E-2</v>
+      </c>
+      <c r="R2" s="2">
+        <v>1.7199899999999999</v>
+      </c>
+      <c r="S2" s="2">
+        <v>0.46441500000000002</v>
+      </c>
+      <c r="T2" s="2">
+        <v>1.1365999999999999E-2</v>
+      </c>
+      <c r="U2" s="2">
+        <v>4.5979999999999997E-3</v>
+      </c>
+      <c r="V2" s="2">
+        <v>6.3621999999999998E-2</v>
+      </c>
+      <c r="W2" s="2">
+        <v>5.7549000000000003E-2</v>
+      </c>
+      <c r="X2" s="2">
+        <v>42.628799999999998</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>0.223801</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>98.390799999999999</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>42.871600000000001</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>3.0756999999999999</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>9.8818199999999994</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>1.0026999999999999E-2</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>12.334300000000001</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>-4.96E-3</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>0.28761599999999998</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>13.7439</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>11.1768</v>
+      </c>
+      <c r="AJ2" s="2">
+        <v>1.5973000000000001E-2</v>
+      </c>
+      <c r="AK2" s="2">
+        <v>2.3185099999999998</v>
+      </c>
+      <c r="AL2" s="2">
+        <v>0.55943100000000001</v>
+      </c>
+      <c r="AM2" s="2">
+        <v>2.6044999999999999E-2</v>
+      </c>
+      <c r="AN2" s="2">
+        <v>1.1480000000000001E-2</v>
+      </c>
+      <c r="AO2" s="2">
+        <v>6.3621999999999998E-2</v>
+      </c>
+      <c r="AP2" s="2">
+        <v>5.7549000000000003E-2</v>
+      </c>
+      <c r="AQ2" s="2">
+        <v>-3.8600000000000002E-2</v>
+      </c>
+      <c r="AR2" s="2">
+        <v>2</v>
+      </c>
+      <c r="AS2" s="2">
+        <v>98.390799999999999</v>
+      </c>
+      <c r="AT2" s="2">
+        <v>22</v>
+      </c>
+      <c r="AU2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AV2" s="2">
+        <v>5.8916399999999998</v>
+      </c>
+      <c r="AW2" s="2">
+        <v>0.31785999999999998</v>
+      </c>
+      <c r="AX2" s="2">
+        <v>1.6005199999999999</v>
+      </c>
+      <c r="AY2" s="2">
+        <v>1.0889999999999999E-3</v>
+      </c>
+      <c r="AZ2" s="2">
+        <v>1.41757</v>
+      </c>
+      <c r="BA2" s="2">
+        <v>-5.5000000000000003E-4</v>
+      </c>
+      <c r="BB2" s="2">
+        <v>3.3479000000000002E-2</v>
+      </c>
+      <c r="BC2" s="2">
+        <v>2.8157399999999999</v>
+      </c>
+      <c r="BD2" s="2">
+        <v>1.6456999999999999</v>
+      </c>
+      <c r="BE2" s="2">
+        <v>8.5999999999999998E-4</v>
+      </c>
+      <c r="BF2" s="2">
+        <v>0.61777099999999996</v>
+      </c>
+      <c r="BG2" s="2">
+        <v>9.8072000000000006E-2</v>
+      </c>
+      <c r="BH2" s="2">
+        <v>3.0300000000000001E-3</v>
+      </c>
+      <c r="BI2" s="2">
+        <v>1.1839999999999999E-3</v>
+      </c>
+      <c r="BJ2" s="2">
+        <v>1.4818E-2</v>
+      </c>
+      <c r="BK2" s="2">
+        <v>2.5013000000000001E-2</v>
+      </c>
+      <c r="BL2" s="2">
+        <v>22</v>
+      </c>
+      <c r="BM2" s="2">
+        <v>1.8333299999999999</v>
+      </c>
+      <c r="BN2" s="2"/>
+      <c r="BO2" s="2"/>
+      <c r="BP2" s="2"/>
+      <c r="BQ2" s="2"/>
+      <c r="BR2" s="2"/>
+      <c r="BS2" s="2">
+        <v>8.0859999999999994E-3</v>
+      </c>
+      <c r="BT2" s="2">
+        <v>1.0786E-2</v>
+      </c>
+      <c r="BU2" s="2">
+        <v>7.4869999999999997E-3</v>
+      </c>
+      <c r="BV2" s="2">
+        <v>1.0411999999999999E-2</v>
+      </c>
+      <c r="BW2" s="2">
+        <v>1.5447000000000001E-2</v>
+      </c>
+      <c r="BX2" s="2">
+        <v>1.6126999999999999E-2</v>
+      </c>
+      <c r="BY2" s="2">
+        <v>1.464E-2</v>
+      </c>
+      <c r="BZ2" s="2">
+        <v>7.5519999999999997E-3</v>
+      </c>
+      <c r="CA2" s="2">
+        <v>9.8270000000000007E-3</v>
+      </c>
+      <c r="CB2" s="2">
+        <v>3.1629999999999998E-2</v>
+      </c>
+      <c r="CC2" s="2">
+        <v>1.2370000000000001E-2</v>
+      </c>
+      <c r="CD2" s="2">
+        <v>1.0506E-2</v>
+      </c>
+      <c r="CE2" s="2">
+        <v>8.9280000000000002E-3</v>
+      </c>
+      <c r="CF2" s="2">
+        <v>9.3720000000000001E-3</v>
+      </c>
+      <c r="CG2" s="2">
+        <v>6.8069999999999997E-3</v>
+      </c>
+      <c r="CH2" s="2">
+        <v>2.7324999999999999E-2</v>
+      </c>
+      <c r="CI2" s="2">
+        <v>0.204986</v>
+      </c>
+      <c r="CJ2" s="2">
+        <v>1.4398299999999999</v>
+      </c>
+      <c r="CK2" s="2">
+        <v>0.457343</v>
+      </c>
+      <c r="CL2" s="2">
+        <v>108.839</v>
+      </c>
+      <c r="CM2" s="2">
+        <v>0.68720700000000001</v>
+      </c>
+      <c r="CN2" s="2">
+        <v>-290.63</v>
+      </c>
+      <c r="CO2" s="2">
+        <v>6.67401</v>
+      </c>
+      <c r="CP2" s="2">
+        <v>0.41614499999999999</v>
+      </c>
+      <c r="CQ2" s="2">
+        <v>0.55427199999999999</v>
+      </c>
+      <c r="CR2" s="2">
+        <v>158.6</v>
+      </c>
+      <c r="CS2" s="2">
+        <v>1.44207</v>
+      </c>
+      <c r="CT2" s="2">
+        <v>3.1590699999999998</v>
+      </c>
+      <c r="CU2" s="2">
+        <v>60.332999999999998</v>
+      </c>
+      <c r="CV2" s="2">
+        <v>148.38800000000001</v>
+      </c>
+      <c r="CW2" s="2">
+        <v>9.7101000000000006</v>
+      </c>
+      <c r="CX2" s="2">
+        <v>21.944800000000001</v>
+      </c>
+      <c r="CY2" s="2">
+        <v>75.445499999999996</v>
+      </c>
+      <c r="CZ2" s="2">
+        <v>78.848100000000002</v>
+      </c>
+      <c r="DA2" s="2">
+        <v>10.6905</v>
+      </c>
+      <c r="DB2" s="2">
+        <v>25.01</v>
+      </c>
+      <c r="DC2" s="2">
+        <v>25.04</v>
+      </c>
+      <c r="DD2" s="2">
+        <v>20.3</v>
+      </c>
+      <c r="DE2" s="2">
+        <v>20.43</v>
+      </c>
+      <c r="DF2" s="2">
+        <v>30</v>
+      </c>
+      <c r="DG2" s="2">
+        <v>30</v>
+      </c>
+      <c r="DH2" s="2">
+        <v>30</v>
+      </c>
+      <c r="DI2" s="2">
+        <v>30</v>
+      </c>
+      <c r="DJ2" s="2">
+        <v>45</v>
+      </c>
+      <c r="DK2" s="2">
+        <v>30</v>
+      </c>
+      <c r="DL2" s="2">
+        <v>45</v>
+      </c>
+      <c r="DM2" s="2">
+        <v>30</v>
+      </c>
+      <c r="DN2" s="2">
+        <v>20</v>
+      </c>
+      <c r="DO2" s="2">
+        <v>30</v>
+      </c>
+      <c r="DP2" s="2">
+        <v>30</v>
+      </c>
+      <c r="DQ2" s="2">
+        <v>15</v>
+      </c>
+      <c r="DR2" s="2">
+        <v>20</v>
+      </c>
+      <c r="DS2" s="2">
+        <v>15</v>
+      </c>
+      <c r="DT2" s="2">
+        <v>30</v>
+      </c>
+      <c r="DU2" s="2">
+        <v>70</v>
+      </c>
+      <c r="DV2" s="3">
+        <v>45484.717361111114</v>
+      </c>
+      <c r="DW2" s="2">
+        <v>1039</v>
+      </c>
+      <c r="DX2" s="2">
+        <v>1710</v>
+      </c>
+      <c r="DY2" s="2">
+        <v>1545</v>
+      </c>
+      <c r="DZ2" s="2">
+        <v>1713</v>
+      </c>
+      <c r="EA2" s="2">
+        <v>1715</v>
+      </c>
+      <c r="EB2" s="2">
+        <v>472</v>
+      </c>
+      <c r="EC2" s="2">
+        <v>473</v>
+      </c>
+      <c r="ED2" s="2">
+        <v>450</v>
+      </c>
+      <c r="EE2" s="2">
+        <v>1039</v>
+      </c>
+      <c r="EF2" s="2">
+        <v>830</v>
+      </c>
+      <c r="EG2" s="2">
+        <v>1500</v>
+      </c>
+      <c r="EH2" s="2">
+        <v>1524</v>
+      </c>
+      <c r="EI2" s="2">
+        <v>1940</v>
+      </c>
+      <c r="EJ2" s="2">
+        <v>708</v>
+      </c>
+      <c r="EK2" s="2">
+        <v>1560</v>
+      </c>
+      <c r="EL2" s="2">
+        <v>1360</v>
+      </c>
+      <c r="EM2" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="EN2" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="EO2" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="EP2" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="EQ2" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="ER2" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="ES2" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="ET2" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="EU2" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="EV2" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="EW2" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="EX2" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="EY2" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="EZ2" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="FA2" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="FB2" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="FC2" s="2">
+        <v>16.2773</v>
+      </c>
+      <c r="FD2" s="2">
+        <v>38.317100000000003</v>
+      </c>
+      <c r="FE2" s="2">
+        <v>12.957100000000001</v>
+      </c>
+      <c r="FF2" s="2">
+        <v>3.8589999999999999E-2</v>
+      </c>
+      <c r="FG2" s="2">
+        <v>42.628799999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:163" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3" s="2">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" s="2">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2">
+        <v>25</v>
+      </c>
+      <c r="F3" s="2">
+        <v>5</v>
+      </c>
+      <c r="G3" s="2">
+        <v>114</v>
+      </c>
+      <c r="H3" s="2">
+        <v>20.2258</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1.6432800000000001</v>
+      </c>
+      <c r="J3" s="2">
+        <v>5.1942399999999997</v>
+      </c>
+      <c r="K3" s="2">
+        <v>7.6099999999999996E-4</v>
+      </c>
+      <c r="L3" s="2">
+        <v>9.7615599999999993</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1.7770000000000001E-2</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0.24505099999999999</v>
+      </c>
+      <c r="O3" s="2">
+        <v>8.3192599999999999</v>
+      </c>
+      <c r="P3" s="2">
+        <v>7.9383699999999999</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>4.1565999999999999E-2</v>
+      </c>
+      <c r="R3" s="2">
+        <v>1.6998800000000001</v>
+      </c>
+      <c r="S3" s="2">
+        <v>0.425649</v>
+      </c>
+      <c r="T3" s="2">
+        <v>1.0126E-2</v>
+      </c>
+      <c r="U3" s="2">
+        <v>3.4580000000000001E-3</v>
+      </c>
+      <c r="V3" s="2">
+        <v>4.2417000000000003E-2</v>
+      </c>
+      <c r="W3" s="2">
+        <v>9.9083000000000004E-2</v>
+      </c>
+      <c r="X3" s="2">
+        <v>42.707799999999999</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>0.223801</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>98.599800000000002</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>43.270099999999999</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>2.7410899999999998</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>9.8144200000000001</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>1.1119999999999999E-3</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>12.558199999999999</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>2.2613000000000001E-2</v>
+      </c>
+      <c r="AG3" s="2">
+        <v>0.31641900000000001</v>
+      </c>
+      <c r="AH3" s="2">
+        <v>13.7958</v>
+      </c>
+      <c r="AI3" s="2">
+        <v>11.1074</v>
+      </c>
+      <c r="AJ3" s="2">
+        <v>4.6407999999999998E-2</v>
+      </c>
+      <c r="AK3" s="2">
+        <v>2.2913999999999999</v>
+      </c>
+      <c r="AL3" s="2">
+        <v>0.51273400000000002</v>
+      </c>
+      <c r="AM3" s="2">
+        <v>2.3202E-2</v>
+      </c>
+      <c r="AN3" s="2">
+        <v>8.6350000000000003E-3</v>
+      </c>
+      <c r="AO3" s="2">
+        <v>4.2417000000000003E-2</v>
+      </c>
+      <c r="AP3" s="2">
+        <v>9.9083000000000004E-2</v>
+      </c>
+      <c r="AQ3" s="2">
+        <v>-5.1290000000000002E-2</v>
+      </c>
+      <c r="AR3" s="2">
+        <v>2</v>
+      </c>
+      <c r="AS3" s="2">
+        <v>98.599800000000002</v>
+      </c>
+      <c r="AT3" s="2">
+        <v>22</v>
+      </c>
+      <c r="AU3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AV3" s="2">
+        <v>5.9354100000000001</v>
+      </c>
+      <c r="AW3" s="2">
+        <v>0.28275699999999998</v>
+      </c>
+      <c r="AX3" s="2">
+        <v>1.58666</v>
+      </c>
+      <c r="AY3" s="2">
+        <v>1.21E-4</v>
+      </c>
+      <c r="AZ3" s="2">
+        <v>1.4406399999999999</v>
+      </c>
+      <c r="BA3" s="2">
+        <v>2.4949999999999998E-3</v>
+      </c>
+      <c r="BB3" s="2">
+        <v>3.6763999999999998E-2</v>
+      </c>
+      <c r="BC3" s="2">
+        <v>2.8211400000000002</v>
+      </c>
+      <c r="BD3" s="2">
+        <v>1.63245</v>
+      </c>
+      <c r="BE3" s="2">
+        <v>2.4940000000000001E-3</v>
+      </c>
+      <c r="BF3" s="2">
+        <v>0.60941699999999999</v>
+      </c>
+      <c r="BG3" s="2">
+        <v>8.9719999999999994E-2</v>
+      </c>
+      <c r="BH3" s="2">
+        <v>2.6940000000000002E-3</v>
+      </c>
+      <c r="BI3" s="2">
+        <v>8.8900000000000003E-4</v>
+      </c>
+      <c r="BJ3" s="2">
+        <v>9.861E-3</v>
+      </c>
+      <c r="BK3" s="2">
+        <v>4.2986000000000003E-2</v>
+      </c>
+      <c r="BL3" s="2">
+        <v>22</v>
+      </c>
+      <c r="BM3" s="2">
+        <v>1.8299399999999999</v>
+      </c>
+      <c r="BN3" s="2"/>
+      <c r="BO3" s="2"/>
+      <c r="BP3" s="2"/>
+      <c r="BQ3" s="2"/>
+      <c r="BR3" s="2"/>
+      <c r="BS3" s="2">
+        <v>8.0929999999999995E-3</v>
+      </c>
+      <c r="BT3" s="2">
+        <v>1.0789999999999999E-2</v>
+      </c>
+      <c r="BU3" s="2">
+        <v>7.4939999999999998E-3</v>
+      </c>
+      <c r="BV3" s="2">
+        <v>1.0410000000000001E-2</v>
+      </c>
+      <c r="BW3" s="2">
+        <v>1.5455E-2</v>
+      </c>
+      <c r="BX3" s="2">
+        <v>1.6139000000000001E-2</v>
+      </c>
+      <c r="BY3" s="2">
+        <v>1.4645E-2</v>
+      </c>
+      <c r="BZ3" s="2">
+        <v>7.5589999999999997E-3</v>
+      </c>
+      <c r="CA3" s="2">
+        <v>9.835E-3</v>
+      </c>
+      <c r="CB3" s="2">
+        <v>3.1641000000000002E-2</v>
+      </c>
+      <c r="CC3" s="2">
+        <v>1.2385999999999999E-2</v>
+      </c>
+      <c r="CD3" s="2">
+        <v>1.0517E-2</v>
+      </c>
+      <c r="CE3" s="2">
+        <v>8.9370000000000005E-3</v>
+      </c>
+      <c r="CF3" s="2">
+        <v>9.3810000000000004E-3</v>
+      </c>
+      <c r="CG3" s="2">
+        <v>6.8129999999999996E-3</v>
+      </c>
+      <c r="CH3" s="2">
+        <v>2.7146E-2</v>
+      </c>
+      <c r="CI3" s="2">
+        <v>0.20407900000000001</v>
+      </c>
+      <c r="CJ3" s="2">
+        <v>1.5329200000000001</v>
+      </c>
+      <c r="CK3" s="2">
+        <v>0.45921800000000002</v>
+      </c>
+      <c r="CL3" s="2">
+        <v>968.30499999999995</v>
+      </c>
+      <c r="CM3" s="2">
+        <v>0.68094200000000005</v>
+      </c>
+      <c r="CN3" s="2">
+        <v>65.010400000000004</v>
+      </c>
+      <c r="CO3" s="2">
+        <v>6.2221399999999996</v>
+      </c>
+      <c r="CP3" s="2">
+        <v>0.41556700000000002</v>
+      </c>
+      <c r="CQ3" s="2">
+        <v>0.55623699999999998</v>
+      </c>
+      <c r="CR3" s="2">
+        <v>56.099499999999999</v>
+      </c>
+      <c r="CS3" s="2">
+        <v>1.45282</v>
+      </c>
+      <c r="CT3" s="2">
+        <v>3.3401399999999999</v>
+      </c>
+      <c r="CU3" s="2">
+        <v>67.224299999999999</v>
+      </c>
+      <c r="CV3" s="2">
+        <v>196.078</v>
+      </c>
+      <c r="CW3" s="2">
+        <v>13.5875</v>
+      </c>
+      <c r="CX3" s="2">
+        <v>12.819800000000001</v>
+      </c>
+      <c r="CY3" s="2">
+        <v>75.5381</v>
+      </c>
+      <c r="CZ3" s="2">
+        <v>78.793400000000005</v>
+      </c>
+      <c r="DA3" s="2">
+        <v>10.6905</v>
+      </c>
+      <c r="DB3" s="2">
+        <v>25</v>
+      </c>
+      <c r="DC3" s="2">
+        <v>25.05</v>
+      </c>
+      <c r="DD3" s="2">
+        <v>20.315000000000001</v>
+      </c>
+      <c r="DE3" s="2">
+        <v>20.43</v>
+      </c>
+      <c r="DF3" s="2">
+        <v>30</v>
+      </c>
+      <c r="DG3" s="2">
+        <v>30</v>
+      </c>
+      <c r="DH3" s="2">
+        <v>30</v>
+      </c>
+      <c r="DI3" s="2">
+        <v>30</v>
+      </c>
+      <c r="DJ3" s="2">
+        <v>45</v>
+      </c>
+      <c r="DK3" s="2">
+        <v>30</v>
+      </c>
+      <c r="DL3" s="2">
+        <v>45</v>
+      </c>
+      <c r="DM3" s="2">
+        <v>30</v>
+      </c>
+      <c r="DN3" s="2">
+        <v>20</v>
+      </c>
+      <c r="DO3" s="2">
+        <v>30</v>
+      </c>
+      <c r="DP3" s="2">
+        <v>30</v>
+      </c>
+      <c r="DQ3" s="2">
+        <v>15</v>
+      </c>
+      <c r="DR3" s="2">
+        <v>20</v>
+      </c>
+      <c r="DS3" s="2">
+        <v>15</v>
+      </c>
+      <c r="DT3" s="2">
+        <v>30</v>
+      </c>
+      <c r="DU3" s="2">
+        <v>70</v>
+      </c>
+      <c r="DV3" s="3">
+        <v>45484.719444444447</v>
+      </c>
+      <c r="DW3" s="2">
+        <v>1039</v>
+      </c>
+      <c r="DX3" s="2">
+        <v>1710</v>
+      </c>
+      <c r="DY3" s="2">
+        <v>1545</v>
+      </c>
+      <c r="DZ3" s="2">
+        <v>1713</v>
+      </c>
+      <c r="EA3" s="2">
+        <v>1715</v>
+      </c>
+      <c r="EB3" s="2">
+        <v>472</v>
+      </c>
+      <c r="EC3" s="2">
+        <v>473</v>
+      </c>
+      <c r="ED3" s="2">
+        <v>450</v>
+      </c>
+      <c r="EE3" s="2">
+        <v>1039</v>
+      </c>
+      <c r="EF3" s="2">
+        <v>830</v>
+      </c>
+      <c r="EG3" s="2">
+        <v>1500</v>
+      </c>
+      <c r="EH3" s="2">
+        <v>1524</v>
+      </c>
+      <c r="EI3" s="2">
+        <v>1940</v>
+      </c>
+      <c r="EJ3" s="2">
+        <v>708</v>
+      </c>
+      <c r="EK3" s="2">
+        <v>1560</v>
+      </c>
+      <c r="EL3" s="2">
+        <v>1360</v>
+      </c>
+      <c r="EM3" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="EN3" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="EO3" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="EP3" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="EQ3" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="ER3" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="ES3" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="ET3" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="EU3" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="EV3" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="EW3" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="EX3" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="EY3" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="EZ3" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="FA3" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="FB3" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="FC3" s="2">
+        <v>16.273599999999998</v>
+      </c>
+      <c r="FD3" s="2">
+        <v>38.3264</v>
+      </c>
+      <c r="FE3" s="2">
+        <v>12.9686</v>
+      </c>
+      <c r="FF3" s="2">
+        <v>5.1295E-2</v>
+      </c>
+      <c r="FG3" s="2">
+        <v>42.707799999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:163" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B4" s="2">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2">
+        <v>40</v>
+      </c>
+      <c r="D4" s="2">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2">
+        <v>25</v>
+      </c>
+      <c r="F4" s="2">
+        <v>5</v>
+      </c>
+      <c r="G4" s="2">
+        <v>115</v>
+      </c>
+      <c r="H4" s="2">
+        <v>21.264299999999999</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.66061400000000003</v>
+      </c>
+      <c r="J4" s="2">
+        <v>4.6474799999999998</v>
+      </c>
+      <c r="K4" s="2">
+        <v>3.2814999999999997E-2</v>
+      </c>
+      <c r="L4" s="2">
+        <v>9.3055900000000005</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1.222E-2</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0.201539</v>
+      </c>
+      <c r="O4" s="2">
+        <v>9.1493699999999993</v>
+      </c>
+      <c r="P4" s="2">
+        <v>8.0055999999999994</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>2.215E-3</v>
+      </c>
+      <c r="R4" s="2">
+        <v>1.33799</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0.34545300000000001</v>
+      </c>
+      <c r="T4" s="2">
+        <v>1.3749000000000001E-2</v>
+      </c>
+      <c r="U4" s="2">
+        <v>3.3700000000000002E-3</v>
+      </c>
+      <c r="V4" s="2">
+        <v>5.8195999999999998E-2</v>
+      </c>
+      <c r="W4" s="2">
+        <v>0.116661</v>
+      </c>
+      <c r="X4" s="2">
+        <v>43.0381</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>0.223801</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>98.418999999999997</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>45.491799999999998</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>1.1019399999999999</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>8.7813400000000001</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>4.7961999999999998E-2</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>11.9716</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>1.555E-2</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>0.26023499999999999</v>
+      </c>
+      <c r="AH4" s="2">
+        <v>15.1724</v>
+      </c>
+      <c r="AI4" s="2">
+        <v>11.2014</v>
+      </c>
+      <c r="AJ4" s="2">
+        <v>2.4729999999999999E-3</v>
+      </c>
+      <c r="AK4" s="2">
+        <v>1.80358</v>
+      </c>
+      <c r="AL4" s="2">
+        <v>0.41613099999999997</v>
+      </c>
+      <c r="AM4" s="2">
+        <v>3.1503999999999997E-2</v>
+      </c>
+      <c r="AN4" s="2">
+        <v>8.4139999999999996E-3</v>
+      </c>
+      <c r="AO4" s="2">
+        <v>5.8195999999999998E-2</v>
+      </c>
+      <c r="AP4" s="2">
+        <v>0.116661</v>
+      </c>
+      <c r="AQ4" s="2">
+        <v>-6.2269999999999999E-2</v>
+      </c>
+      <c r="AR4" s="2">
+        <v>2</v>
+      </c>
+      <c r="AS4" s="2">
+        <v>98.418999999999997</v>
+      </c>
+      <c r="AT4" s="2">
+        <v>22</v>
+      </c>
+      <c r="AU4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AV4" s="2">
+        <v>6.1922699999999997</v>
+      </c>
+      <c r="AW4" s="2">
+        <v>0.112798</v>
+      </c>
+      <c r="AX4" s="2">
+        <v>1.4087499999999999</v>
+      </c>
+      <c r="AY4" s="2">
+        <v>5.1619999999999999E-3</v>
+      </c>
+      <c r="AZ4" s="2">
+        <v>1.3628100000000001</v>
+      </c>
+      <c r="BA4" s="2">
+        <v>1.702E-3</v>
+      </c>
+      <c r="BB4" s="2">
+        <v>3.0003999999999999E-2</v>
+      </c>
+      <c r="BC4" s="2">
+        <v>3.07883</v>
+      </c>
+      <c r="BD4" s="2">
+        <v>1.63364</v>
+      </c>
+      <c r="BE4" s="2">
+        <v>1.3200000000000001E-4</v>
+      </c>
+      <c r="BF4" s="2">
+        <v>0.47599599999999997</v>
+      </c>
+      <c r="BG4" s="2">
+        <v>7.2257000000000002E-2</v>
+      </c>
+      <c r="BH4" s="2">
+        <v>3.63E-3</v>
+      </c>
+      <c r="BI4" s="2">
+        <v>8.5999999999999998E-4</v>
+      </c>
+      <c r="BJ4" s="2">
+        <v>1.3424999999999999E-2</v>
+      </c>
+      <c r="BK4" s="2">
+        <v>5.0222999999999997E-2</v>
+      </c>
+      <c r="BL4" s="2">
+        <v>22</v>
+      </c>
+      <c r="BM4" s="2">
+        <v>1.8159000000000001</v>
+      </c>
+      <c r="BN4" s="2"/>
+      <c r="BO4" s="2"/>
+      <c r="BP4" s="2"/>
+      <c r="BQ4" s="2"/>
+      <c r="BR4" s="2"/>
+      <c r="BS4" s="2">
+        <v>8.0319999999999992E-3</v>
+      </c>
+      <c r="BT4" s="2">
+        <v>1.0737999999999999E-2</v>
+      </c>
+      <c r="BU4" s="2">
+        <v>7.4469999999999996E-3</v>
+      </c>
+      <c r="BV4" s="2">
+        <v>1.0359999999999999E-2</v>
+      </c>
+      <c r="BW4" s="2">
+        <v>1.5372E-2</v>
+      </c>
+      <c r="BX4" s="2">
+        <v>1.6050999999999999E-2</v>
+      </c>
+      <c r="BY4" s="2">
+        <v>1.4593999999999999E-2</v>
+      </c>
+      <c r="BZ4" s="2">
+        <v>7.4640000000000001E-3</v>
+      </c>
+      <c r="CA4" s="2">
+        <v>9.8169999999999993E-3</v>
+      </c>
+      <c r="CB4" s="2">
+        <v>3.1512999999999999E-2</v>
+      </c>
+      <c r="CC4" s="2">
+        <v>1.2215E-2</v>
+      </c>
+      <c r="CD4" s="2">
+        <v>1.0486000000000001E-2</v>
+      </c>
+      <c r="CE4" s="2">
+        <v>8.9289999999999994E-3</v>
+      </c>
+      <c r="CF4" s="2">
+        <v>9.3670000000000003E-3</v>
+      </c>
+      <c r="CG4" s="2">
+        <v>6.796E-3</v>
+      </c>
+      <c r="CH4" s="2">
+        <v>2.6647000000000001E-2</v>
+      </c>
+      <c r="CI4" s="2">
+        <v>0.19863</v>
+      </c>
+      <c r="CJ4" s="2">
+        <v>2.5777100000000002</v>
+      </c>
+      <c r="CK4" s="2">
+        <v>0.48671500000000001</v>
+      </c>
+      <c r="CL4" s="2">
+        <v>23.882200000000001</v>
+      </c>
+      <c r="CM4" s="2">
+        <v>0.69835100000000006</v>
+      </c>
+      <c r="CN4" s="2">
+        <v>93.624099999999999</v>
+      </c>
+      <c r="CO4" s="2">
+        <v>7.1841699999999999</v>
+      </c>
+      <c r="CP4" s="2">
+        <v>0.393486</v>
+      </c>
+      <c r="CQ4" s="2">
+        <v>0.555006</v>
+      </c>
+      <c r="CR4" s="2">
+        <v>1008.16</v>
+      </c>
+      <c r="CS4" s="2">
+        <v>1.65395</v>
+      </c>
+      <c r="CT4" s="2">
+        <v>3.8250500000000001</v>
+      </c>
+      <c r="CU4" s="2">
+        <v>50.7059</v>
+      </c>
+      <c r="CV4" s="2">
+        <v>200.84</v>
+      </c>
+      <c r="CW4" s="2">
+        <v>10.4354</v>
+      </c>
+      <c r="CX4" s="2">
+        <v>10.7537</v>
+      </c>
+      <c r="CY4" s="2">
+        <v>75.612099999999998</v>
+      </c>
+      <c r="CZ4" s="2">
+        <v>78.642200000000003</v>
+      </c>
+      <c r="DA4" s="2">
+        <v>10.6905</v>
+      </c>
+      <c r="DB4" s="2">
+        <v>25.01</v>
+      </c>
+      <c r="DC4" s="2">
+        <v>25.045000000000002</v>
+      </c>
+      <c r="DD4" s="2">
+        <v>20.350000000000001</v>
+      </c>
+      <c r="DE4" s="2">
+        <v>20.49</v>
+      </c>
+      <c r="DF4" s="2">
+        <v>30</v>
+      </c>
+      <c r="DG4" s="2">
+        <v>30</v>
+      </c>
+      <c r="DH4" s="2">
+        <v>30</v>
+      </c>
+      <c r="DI4" s="2">
+        <v>30</v>
+      </c>
+      <c r="DJ4" s="2">
+        <v>45</v>
+      </c>
+      <c r="DK4" s="2">
+        <v>30</v>
+      </c>
+      <c r="DL4" s="2">
+        <v>45</v>
+      </c>
+      <c r="DM4" s="2">
+        <v>30</v>
+      </c>
+      <c r="DN4" s="2">
+        <v>20</v>
+      </c>
+      <c r="DO4" s="2">
+        <v>30</v>
+      </c>
+      <c r="DP4" s="2">
+        <v>30</v>
+      </c>
+      <c r="DQ4" s="2">
+        <v>15</v>
+      </c>
+      <c r="DR4" s="2">
+        <v>20</v>
+      </c>
+      <c r="DS4" s="2">
+        <v>15</v>
+      </c>
+      <c r="DT4" s="2">
+        <v>30</v>
+      </c>
+      <c r="DU4" s="2">
+        <v>70</v>
+      </c>
+      <c r="DV4" s="3">
+        <v>45484.72152777778</v>
+      </c>
+      <c r="DW4" s="2">
+        <v>1039</v>
+      </c>
+      <c r="DX4" s="2">
+        <v>1710</v>
+      </c>
+      <c r="DY4" s="2">
+        <v>1545</v>
+      </c>
+      <c r="DZ4" s="2">
+        <v>1713</v>
+      </c>
+      <c r="EA4" s="2">
+        <v>1715</v>
+      </c>
+      <c r="EB4" s="2">
+        <v>472</v>
+      </c>
+      <c r="EC4" s="2">
+        <v>473</v>
+      </c>
+      <c r="ED4" s="2">
+        <v>450</v>
+      </c>
+      <c r="EE4" s="2">
+        <v>1039</v>
+      </c>
+      <c r="EF4" s="2">
+        <v>830</v>
+      </c>
+      <c r="EG4" s="2">
+        <v>1500</v>
+      </c>
+      <c r="EH4" s="2">
+        <v>1524</v>
+      </c>
+      <c r="EI4" s="2">
+        <v>1940</v>
+      </c>
+      <c r="EJ4" s="2">
+        <v>708</v>
+      </c>
+      <c r="EK4" s="2">
+        <v>1560</v>
+      </c>
+      <c r="EL4" s="2">
+        <v>1360</v>
+      </c>
+      <c r="EM4" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="EN4" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="EO4" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="EP4" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="EQ4" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="ER4" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="ES4" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="ET4" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="EU4" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="EV4" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="EW4" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="EX4" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="EY4" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="EZ4" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="FA4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="FB4" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="FC4" s="2">
+        <v>16.194700000000001</v>
+      </c>
+      <c r="FD4" s="2">
+        <v>38.258400000000002</v>
+      </c>
+      <c r="FE4" s="2">
+        <v>12.7912</v>
+      </c>
+      <c r="FF4" s="2">
+        <v>6.2257E-2</v>
+      </c>
+      <c r="FG4" s="2">
+        <v>43.0381</v>
+      </c>
+    </row>
+    <row r="5" spans="1:163" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B5" s="2">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2">
+        <v>40</v>
+      </c>
+      <c r="D5" s="2">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2">
+        <v>25</v>
+      </c>
+      <c r="F5" s="2">
+        <v>5</v>
+      </c>
+      <c r="G5" s="2">
+        <v>116</v>
+      </c>
+      <c r="H5" s="2">
+        <v>19.834800000000001</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1.87164</v>
+      </c>
+      <c r="J5" s="2">
+        <v>5.4692800000000004</v>
+      </c>
+      <c r="K5" s="2">
+        <v>3.807E-2</v>
+      </c>
+      <c r="L5" s="2">
+        <v>8.7550699999999999</v>
+      </c>
+      <c r="M5" s="2">
+        <v>-3.5799999999999998E-3</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0.184529</v>
+      </c>
+      <c r="O5" s="2">
+        <v>8.7223400000000009</v>
+      </c>
+      <c r="P5" s="2">
+        <v>7.9472300000000002</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>-3.2100000000000002E-3</v>
+      </c>
+      <c r="R5" s="2">
+        <v>1.93</v>
+      </c>
+      <c r="S5" s="2">
+        <v>0.33704699999999999</v>
+      </c>
+      <c r="T5" s="2">
+        <v>1.6670000000000001E-2</v>
+      </c>
+      <c r="U5" s="2">
+        <v>9.4929999999999997E-3</v>
+      </c>
+      <c r="V5" s="2">
+        <v>4.0082E-2</v>
+      </c>
+      <c r="W5" s="2">
+        <v>0.128252</v>
+      </c>
+      <c r="X5" s="2">
+        <v>42.696300000000001</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>0.223801</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>98.197900000000004</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>42.433799999999998</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>3.12201</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>10.334099999999999</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>5.5641999999999997E-2</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>11.263400000000001</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>-4.5500000000000002E-3</v>
+      </c>
+      <c r="AG5" s="2">
+        <v>0.23827000000000001</v>
+      </c>
+      <c r="AH5" s="2">
+        <v>14.4643</v>
+      </c>
+      <c r="AI5" s="2">
+        <v>11.1198</v>
+      </c>
+      <c r="AJ5" s="2">
+        <v>-3.5899999999999999E-3</v>
+      </c>
+      <c r="AK5" s="2">
+        <v>2.6015999999999999</v>
+      </c>
+      <c r="AL5" s="2">
+        <v>0.40600399999999998</v>
+      </c>
+      <c r="AM5" s="2">
+        <v>3.8197000000000002E-2</v>
+      </c>
+      <c r="AN5" s="2">
+        <v>2.3703999999999999E-2</v>
+      </c>
+      <c r="AO5" s="2">
+        <v>4.0082E-2</v>
+      </c>
+      <c r="AP5" s="2">
+        <v>0.128252</v>
+      </c>
+      <c r="AQ5" s="2">
+        <v>-6.3049999999999995E-2</v>
+      </c>
+      <c r="AR5" s="2">
+        <v>2</v>
+      </c>
+      <c r="AS5" s="2">
+        <v>98.197900000000004</v>
+      </c>
+      <c r="AT5" s="2">
+        <v>22</v>
+      </c>
+      <c r="AU5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AV5" s="2">
+        <v>5.8222500000000004</v>
+      </c>
+      <c r="AW5" s="2">
+        <v>0.32213700000000001</v>
+      </c>
+      <c r="AX5" s="2">
+        <v>1.6711199999999999</v>
+      </c>
+      <c r="AY5" s="2">
+        <v>6.0359999999999997E-3</v>
+      </c>
+      <c r="AZ5" s="2">
+        <v>1.29244</v>
+      </c>
+      <c r="BA5" s="2">
+        <v>-5.0000000000000001E-4</v>
+      </c>
+      <c r="BB5" s="2">
+        <v>2.7691E-2</v>
+      </c>
+      <c r="BC5" s="2">
+        <v>2.9586199999999998</v>
+      </c>
+      <c r="BD5" s="2">
+        <v>1.6347100000000001</v>
+      </c>
+      <c r="BE5" s="2">
+        <v>-1.9000000000000001E-4</v>
+      </c>
+      <c r="BF5" s="2">
+        <v>0.69210400000000005</v>
+      </c>
+      <c r="BG5" s="2">
+        <v>7.1063000000000001E-2</v>
+      </c>
+      <c r="BH5" s="2">
+        <v>4.437E-3</v>
+      </c>
+      <c r="BI5" s="2">
+        <v>2.441E-3</v>
+      </c>
+      <c r="BJ5" s="2">
+        <v>9.3209999999999994E-3</v>
+      </c>
+      <c r="BK5" s="2">
+        <v>5.5655000000000003E-2</v>
+      </c>
+      <c r="BL5" s="2">
+        <v>22</v>
+      </c>
+      <c r="BM5" s="2">
+        <v>1.83043</v>
+      </c>
+      <c r="BN5" s="2"/>
+      <c r="BO5" s="2"/>
+      <c r="BP5" s="2"/>
+      <c r="BQ5" s="2"/>
+      <c r="BR5" s="2"/>
+      <c r="BS5" s="2">
+        <v>8.0540000000000004E-3</v>
+      </c>
+      <c r="BT5" s="2">
+        <v>1.0739E-2</v>
+      </c>
+      <c r="BU5" s="2">
+        <v>7.4520000000000003E-3</v>
+      </c>
+      <c r="BV5" s="2">
+        <v>1.0388E-2</v>
+      </c>
+      <c r="BW5" s="2">
+        <v>1.5370999999999999E-2</v>
+      </c>
+      <c r="BX5" s="2">
+        <v>1.6043999999999999E-2</v>
+      </c>
+      <c r="BY5" s="2">
+        <v>1.4593999999999999E-2</v>
+      </c>
+      <c r="BZ5" s="2">
+        <v>7.4859999999999996E-3</v>
+      </c>
+      <c r="CA5" s="2">
+        <v>9.7890000000000008E-3</v>
+      </c>
+      <c r="CB5" s="2">
+        <v>3.1509000000000002E-2</v>
+      </c>
+      <c r="CC5" s="2">
+        <v>1.2213999999999999E-2</v>
+      </c>
+      <c r="CD5" s="2">
+        <v>1.0463E-2</v>
+      </c>
+      <c r="CE5" s="2">
+        <v>8.9040000000000005E-3</v>
+      </c>
+      <c r="CF5" s="2">
+        <v>9.3449999999999991E-3</v>
+      </c>
+      <c r="CG5" s="2">
+        <v>6.7819999999999998E-3</v>
+      </c>
+      <c r="CH5" s="2">
+        <v>2.7178999999999998E-2</v>
+      </c>
+      <c r="CI5" s="2">
+        <v>0.20632</v>
+      </c>
+      <c r="CJ5" s="2">
+        <v>1.42883</v>
+      </c>
+      <c r="CK5" s="2">
+        <v>0.446849</v>
+      </c>
+      <c r="CL5" s="2">
+        <v>20.846800000000002</v>
+      </c>
+      <c r="CM5" s="2">
+        <v>0.72036199999999995</v>
+      </c>
+      <c r="CN5" s="2">
+        <v>-315.33999999999997</v>
+      </c>
+      <c r="CO5" s="2">
+        <v>7.6812699999999996</v>
+      </c>
+      <c r="CP5" s="2">
+        <v>0.40423999999999999</v>
+      </c>
+      <c r="CQ5" s="2">
+        <v>0.55592699999999995</v>
+      </c>
+      <c r="CR5" s="2">
+        <v>-691.18</v>
+      </c>
+      <c r="CS5" s="2">
+        <v>1.34361</v>
+      </c>
+      <c r="CT5" s="2">
+        <v>3.88002</v>
+      </c>
+      <c r="CU5" s="2">
+        <v>42.4938</v>
+      </c>
+      <c r="CV5" s="2">
+        <v>73.813299999999998</v>
+      </c>
+      <c r="CW5" s="2">
+        <v>14.2134</v>
+      </c>
+      <c r="CX5" s="2">
+        <v>10.000999999999999</v>
+      </c>
+      <c r="CY5" s="2">
+        <v>75.638199999999998</v>
+      </c>
+      <c r="CZ5" s="2">
+        <v>78.454599999999999</v>
+      </c>
+      <c r="DA5" s="2">
+        <v>10.6905</v>
+      </c>
+      <c r="DB5" s="2">
+        <v>25.015000000000001</v>
+      </c>
+      <c r="DC5" s="2">
+        <v>25.05</v>
+      </c>
+      <c r="DD5" s="2">
+        <v>20.350000000000001</v>
+      </c>
+      <c r="DE5" s="2">
+        <v>20.440000000000001</v>
+      </c>
+      <c r="DF5" s="2">
+        <v>30</v>
+      </c>
+      <c r="DG5" s="2">
+        <v>30</v>
+      </c>
+      <c r="DH5" s="2">
+        <v>30</v>
+      </c>
+      <c r="DI5" s="2">
+        <v>30</v>
+      </c>
+      <c r="DJ5" s="2">
+        <v>45</v>
+      </c>
+      <c r="DK5" s="2">
+        <v>30</v>
+      </c>
+      <c r="DL5" s="2">
+        <v>45</v>
+      </c>
+      <c r="DM5" s="2">
+        <v>30</v>
+      </c>
+      <c r="DN5" s="2">
+        <v>20</v>
+      </c>
+      <c r="DO5" s="2">
+        <v>30</v>
+      </c>
+      <c r="DP5" s="2">
+        <v>30</v>
+      </c>
+      <c r="DQ5" s="2">
+        <v>15</v>
+      </c>
+      <c r="DR5" s="2">
+        <v>20</v>
+      </c>
+      <c r="DS5" s="2">
+        <v>15</v>
+      </c>
+      <c r="DT5" s="2">
+        <v>30</v>
+      </c>
+      <c r="DU5" s="2">
+        <v>70</v>
+      </c>
+      <c r="DV5" s="3">
+        <v>45484.724305555559</v>
+      </c>
+      <c r="DW5" s="2">
+        <v>1039</v>
+      </c>
+      <c r="DX5" s="2">
+        <v>1710</v>
+      </c>
+      <c r="DY5" s="2">
+        <v>1545</v>
+      </c>
+      <c r="DZ5" s="2">
+        <v>1713</v>
+      </c>
+      <c r="EA5" s="2">
+        <v>1715</v>
+      </c>
+      <c r="EB5" s="2">
+        <v>472</v>
+      </c>
+      <c r="EC5" s="2">
+        <v>473</v>
+      </c>
+      <c r="ED5" s="2">
+        <v>450</v>
+      </c>
+      <c r="EE5" s="2">
+        <v>1039</v>
+      </c>
+      <c r="EF5" s="2">
+        <v>830</v>
+      </c>
+      <c r="EG5" s="2">
+        <v>1500</v>
+      </c>
+      <c r="EH5" s="2">
+        <v>1524</v>
+      </c>
+      <c r="EI5" s="2">
+        <v>1940</v>
+      </c>
+      <c r="EJ5" s="2">
+        <v>708</v>
+      </c>
+      <c r="EK5" s="2">
+        <v>1560</v>
+      </c>
+      <c r="EL5" s="2">
+        <v>1360</v>
+      </c>
+      <c r="EM5" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="EN5" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="EO5" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="EP5" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="EQ5" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="ER5" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="ES5" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="ET5" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="EU5" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="EV5" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="EW5" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="EX5" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="EY5" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="EZ5" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="FA5" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="FB5" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="FC5" s="2">
+        <v>16.334800000000001</v>
+      </c>
+      <c r="FD5" s="2">
+        <v>38.399799999999999</v>
+      </c>
+      <c r="FE5" s="2">
+        <v>12.812099999999999</v>
+      </c>
+      <c r="FF5" s="2">
+        <v>6.3050999999999996E-2</v>
+      </c>
+      <c r="FG5" s="2">
+        <v>42.696300000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:163" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B6" s="2">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2">
+        <v>40</v>
+      </c>
+      <c r="D6" s="2">
+        <v>15</v>
+      </c>
+      <c r="E6" s="2">
+        <v>25</v>
+      </c>
+      <c r="F6" s="2">
+        <v>5</v>
+      </c>
+      <c r="G6" s="2">
+        <v>117</v>
+      </c>
+      <c r="H6" s="2">
+        <v>24</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.23017000000000001</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1.0260100000000001</v>
+      </c>
+      <c r="K6" s="2">
+        <v>9.4929999999999997E-3</v>
+      </c>
+      <c r="L6" s="2">
+        <v>5.7914000000000003</v>
+      </c>
+      <c r="M6" s="2">
+        <v>5.5800000000000001E-4</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0.25395400000000001</v>
+      </c>
+      <c r="O6" s="2">
+        <v>9.2808200000000003</v>
+      </c>
+      <c r="P6" s="2">
+        <v>14.7972</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>9.0629999999999999E-3</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0.25834299999999999</v>
+      </c>
+      <c r="S6" s="2">
+        <v>3.0450000000000001E-2</v>
+      </c>
+      <c r="T6" s="2">
+        <v>5.0749999999999997E-3</v>
+      </c>
+      <c r="U6" s="2">
+        <v>9.3290000000000005E-3</v>
+      </c>
+      <c r="V6" s="2">
+        <v>1.2847000000000001E-2</v>
+      </c>
+      <c r="W6" s="2">
+        <v>2.7393000000000001E-2</v>
+      </c>
+      <c r="X6" s="2">
+        <v>44.044800000000002</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>0.223801</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>100.011</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>51.3446</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>0.38393699999999997</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>1.93862</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>1.3875E-2</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>7.4506100000000002</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>7.1000000000000002E-4</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>0.32791500000000001</v>
+      </c>
+      <c r="AH6" s="2">
+        <v>15.3904</v>
+      </c>
+      <c r="AI6" s="2">
+        <v>20.7042</v>
+      </c>
+      <c r="AJ6" s="2">
+        <v>1.0119E-2</v>
+      </c>
+      <c r="AK6" s="2">
+        <v>0.34823999999999999</v>
+      </c>
+      <c r="AL6" s="2">
+        <v>3.6679000000000003E-2</v>
+      </c>
+      <c r="AM6" s="2">
+        <v>1.1629E-2</v>
+      </c>
+      <c r="AN6" s="2">
+        <v>2.3296000000000001E-2</v>
+      </c>
+      <c r="AO6" s="2">
+        <v>1.2847000000000001E-2</v>
+      </c>
+      <c r="AP6" s="2">
+        <v>2.7393000000000001E-2</v>
+      </c>
+      <c r="AQ6" s="2">
+        <v>-1.443E-2</v>
+      </c>
+      <c r="AR6" s="2">
+        <v>2</v>
+      </c>
+      <c r="AS6" s="2">
+        <v>100.011</v>
+      </c>
+      <c r="AT6" s="2">
+        <v>22</v>
+      </c>
+      <c r="AU6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AV6" s="2">
+        <v>6.8292000000000002</v>
+      </c>
+      <c r="AW6" s="2">
+        <v>3.8403E-2</v>
+      </c>
+      <c r="AX6" s="2">
+        <v>0.303896</v>
+      </c>
+      <c r="AY6" s="2">
+        <v>1.459E-3</v>
+      </c>
+      <c r="AZ6" s="2">
+        <v>0.82876499999999997</v>
+      </c>
+      <c r="BA6" s="2">
+        <v>7.6000000000000004E-5</v>
+      </c>
+      <c r="BB6" s="2">
+        <v>3.6942999999999997E-2</v>
+      </c>
+      <c r="BC6" s="2">
+        <v>3.0516800000000002</v>
+      </c>
+      <c r="BD6" s="2">
+        <v>2.95052</v>
+      </c>
+      <c r="BE6" s="2">
+        <v>5.2700000000000002E-4</v>
+      </c>
+      <c r="BF6" s="2">
+        <v>8.9805999999999997E-2</v>
+      </c>
+      <c r="BG6" s="2">
+        <v>6.2230000000000002E-3</v>
+      </c>
+      <c r="BH6" s="2">
+        <v>1.31E-3</v>
+      </c>
+      <c r="BI6" s="2">
+        <v>2.3249999999999998E-3</v>
+      </c>
+      <c r="BJ6" s="2">
+        <v>2.8960000000000001E-3</v>
+      </c>
+      <c r="BK6" s="2">
+        <v>1.1523E-2</v>
+      </c>
+      <c r="BL6" s="2">
+        <v>22</v>
+      </c>
+      <c r="BM6" s="2">
+        <v>1.7743899999999999</v>
+      </c>
+      <c r="BN6" s="2"/>
+      <c r="BO6" s="2"/>
+      <c r="BP6" s="2"/>
+      <c r="BQ6" s="2"/>
+      <c r="BR6" s="2"/>
+      <c r="BS6" s="2">
+        <v>7.8849999999999996E-3</v>
+      </c>
+      <c r="BT6" s="2">
+        <v>1.0871E-2</v>
+      </c>
+      <c r="BU6" s="2">
+        <v>7.3839999999999999E-3</v>
+      </c>
+      <c r="BV6" s="2">
+        <v>1.0560999999999999E-2</v>
+      </c>
+      <c r="BW6" s="2">
+        <v>1.5433000000000001E-2</v>
+      </c>
+      <c r="BX6" s="2">
+        <v>1.6083E-2</v>
+      </c>
+      <c r="BY6" s="2">
+        <v>1.4682000000000001E-2</v>
+      </c>
+      <c r="BZ6" s="2">
+        <v>7.4000000000000003E-3</v>
+      </c>
+      <c r="CA6" s="2">
+        <v>9.8519999999999996E-3</v>
+      </c>
+      <c r="CB6" s="2">
+        <v>3.1898999999999997E-2</v>
+      </c>
+      <c r="CC6" s="2">
+        <v>1.2159E-2</v>
+      </c>
+      <c r="CD6" s="2">
+        <v>1.0315E-2</v>
+      </c>
+      <c r="CE6" s="2">
+        <v>8.8880000000000001E-3</v>
+      </c>
+      <c r="CF6" s="2">
+        <v>9.3310000000000008E-3</v>
+      </c>
+      <c r="CG6" s="2">
+        <v>6.7669999999999996E-3</v>
+      </c>
+      <c r="CH6" s="2">
+        <v>2.6957999999999999E-2</v>
+      </c>
+      <c r="CI6" s="2">
+        <v>0.18340500000000001</v>
+      </c>
+      <c r="CJ6" s="2">
+        <v>5.16831</v>
+      </c>
+      <c r="CK6" s="2">
+        <v>1.12154</v>
+      </c>
+      <c r="CL6" s="2">
+        <v>80.225700000000003</v>
+      </c>
+      <c r="CM6" s="2">
+        <v>0.89574200000000004</v>
+      </c>
+      <c r="CN6" s="2">
+        <v>2034.58</v>
+      </c>
+      <c r="CO6" s="2">
+        <v>6.0866400000000001</v>
+      </c>
+      <c r="CP6" s="2">
+        <v>0.38697799999999999</v>
+      </c>
+      <c r="CQ6" s="2">
+        <v>0.40652300000000002</v>
+      </c>
+      <c r="CR6" s="2">
+        <v>251.16</v>
+      </c>
+      <c r="CS6" s="2">
+        <v>4.7924699999999998</v>
+      </c>
+      <c r="CT6" s="2">
+        <v>26.176600000000001</v>
+      </c>
+      <c r="CU6" s="2">
+        <v>128.73599999999999</v>
+      </c>
+      <c r="CV6" s="2">
+        <v>74.926699999999997</v>
+      </c>
+      <c r="CW6" s="2">
+        <v>39.622100000000003</v>
+      </c>
+      <c r="CX6" s="2">
+        <v>45.112699999999997</v>
+      </c>
+      <c r="CY6" s="2">
+        <v>75.135400000000004</v>
+      </c>
+      <c r="CZ6" s="2">
+        <v>78.433999999999997</v>
+      </c>
+      <c r="DA6" s="2">
+        <v>10.6905</v>
+      </c>
+      <c r="DB6" s="2">
+        <v>25.02</v>
+      </c>
+      <c r="DC6" s="2">
+        <v>25.06</v>
+      </c>
+      <c r="DD6" s="2">
+        <v>20.385000000000002</v>
+      </c>
+      <c r="DE6" s="2">
+        <v>20.53</v>
+      </c>
+      <c r="DF6" s="2">
+        <v>30</v>
+      </c>
+      <c r="DG6" s="2">
+        <v>30</v>
+      </c>
+      <c r="DH6" s="2">
+        <v>30</v>
+      </c>
+      <c r="DI6" s="2">
+        <v>30</v>
+      </c>
+      <c r="DJ6" s="2">
+        <v>45</v>
+      </c>
+      <c r="DK6" s="2">
+        <v>30</v>
+      </c>
+      <c r="DL6" s="2">
+        <v>45</v>
+      </c>
+      <c r="DM6" s="2">
+        <v>30</v>
+      </c>
+      <c r="DN6" s="2">
+        <v>20</v>
+      </c>
+      <c r="DO6" s="2">
+        <v>30</v>
+      </c>
+      <c r="DP6" s="2">
+        <v>30</v>
+      </c>
+      <c r="DQ6" s="2">
+        <v>15</v>
+      </c>
+      <c r="DR6" s="2">
+        <v>20</v>
+      </c>
+      <c r="DS6" s="2">
+        <v>15</v>
+      </c>
+      <c r="DT6" s="2">
+        <v>30</v>
+      </c>
+      <c r="DU6" s="2">
+        <v>70</v>
+      </c>
+      <c r="DV6" s="3">
+        <v>45484.726388888892</v>
+      </c>
+      <c r="DW6" s="2">
+        <v>1039</v>
+      </c>
+      <c r="DX6" s="2">
+        <v>1710</v>
+      </c>
+      <c r="DY6" s="2">
+        <v>1545</v>
+      </c>
+      <c r="DZ6" s="2">
+        <v>1713</v>
+      </c>
+      <c r="EA6" s="2">
+        <v>1715</v>
+      </c>
+      <c r="EB6" s="2">
+        <v>472</v>
+      </c>
+      <c r="EC6" s="2">
+        <v>473</v>
+      </c>
+      <c r="ED6" s="2">
+        <v>450</v>
+      </c>
+      <c r="EE6" s="2">
+        <v>1039</v>
+      </c>
+      <c r="EF6" s="2">
+        <v>830</v>
+      </c>
+      <c r="EG6" s="2">
+        <v>1500</v>
+      </c>
+      <c r="EH6" s="2">
+        <v>1524</v>
+      </c>
+      <c r="EI6" s="2">
+        <v>1940</v>
+      </c>
+      <c r="EJ6" s="2">
+        <v>708</v>
+      </c>
+      <c r="EK6" s="2">
+        <v>1560</v>
+      </c>
+      <c r="EL6" s="2">
+        <v>1360</v>
+      </c>
+      <c r="EM6" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="EN6" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="EO6" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="EP6" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="EQ6" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="ER6" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="ES6" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="ET6" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="EU6" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="EV6" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="EW6" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="EX6" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="EY6" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="EZ6" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="FA6" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="FB6" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="FC6" s="2">
+        <v>15.9155</v>
+      </c>
+      <c r="FD6" s="2">
+        <v>37.929900000000004</v>
+      </c>
+      <c r="FE6" s="2">
+        <v>12.759499999999999</v>
+      </c>
+      <c r="FF6" s="2">
+        <v>1.4434000000000001E-2</v>
+      </c>
+      <c r="FG6" s="2">
+        <v>44.044800000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:163" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B7" s="2">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2">
+        <v>40</v>
+      </c>
+      <c r="D7" s="2">
+        <v>15</v>
+      </c>
+      <c r="E7" s="2">
+        <v>25</v>
+      </c>
+      <c r="F7" s="2">
+        <v>5</v>
+      </c>
+      <c r="G7" s="2">
+        <v>118</v>
+      </c>
+      <c r="H7" s="2">
+        <v>24.563700000000001</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.188328</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.82537099999999997</v>
+      </c>
+      <c r="K7" s="2">
+        <v>-3.7000000000000002E-3</v>
+      </c>
+      <c r="L7" s="2">
+        <v>12.2532</v>
+      </c>
+      <c r="M7" s="2">
+        <v>-2.0879999999999999E-2</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0.53874599999999995</v>
+      </c>
+      <c r="O7" s="2">
+        <v>15.530799999999999</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.946488</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>-2.2899999999999999E-3</v>
+      </c>
+      <c r="R7" s="2">
+        <v>1.2642E-2</v>
+      </c>
+      <c r="S7" s="2">
+        <v>5.0460000000000001E-3</v>
+      </c>
+      <c r="T7" s="2">
+        <v>8.6700000000000006E-3</v>
+      </c>
+      <c r="U7" s="2">
+        <v>5.7400000000000003E-3</v>
+      </c>
+      <c r="V7" s="2">
+        <v>6.5630000000000003E-3</v>
+      </c>
+      <c r="W7" s="2">
+        <v>-3.1289999999999998E-2</v>
+      </c>
+      <c r="X7" s="2">
+        <v>44.921399999999998</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>0.223801</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>99.972300000000004</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>52.5505</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>0.31414199999999998</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>1.55952</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>-5.4099999999999999E-3</v>
+      </c>
+      <c r="AE7" s="2">
+        <v>15.7637</v>
+      </c>
+      <c r="AF7" s="2">
+        <v>-2.657E-2</v>
+      </c>
+      <c r="AG7" s="2">
+        <v>0.69564899999999996</v>
+      </c>
+      <c r="AH7" s="2">
+        <v>25.7547</v>
+      </c>
+      <c r="AI7" s="2">
+        <v>1.32433</v>
+      </c>
+      <c r="AJ7" s="2">
+        <v>-2.5600000000000002E-3</v>
+      </c>
+      <c r="AK7" s="2">
+        <v>1.7042000000000002E-2</v>
+      </c>
+      <c r="AL7" s="2">
+        <v>6.0780000000000001E-3</v>
+      </c>
+      <c r="AM7" s="2">
+        <v>1.9865000000000001E-2</v>
+      </c>
+      <c r="AN7" s="2">
+        <v>1.4331999999999999E-2</v>
+      </c>
+      <c r="AO7" s="2">
+        <v>6.5630000000000003E-3</v>
+      </c>
+      <c r="AP7" s="2">
+        <v>-3.1289999999999998E-2</v>
+      </c>
+      <c r="AQ7" s="2">
+        <v>1.1703E-2</v>
+      </c>
+      <c r="AR7" s="2">
+        <v>2</v>
+      </c>
+      <c r="AS7" s="2">
+        <v>99.972300000000004</v>
+      </c>
+      <c r="AT7" s="2">
+        <v>22</v>
+      </c>
+      <c r="AU7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AV7" s="2">
+        <v>6.8531899999999997</v>
+      </c>
+      <c r="AW7" s="2">
+        <v>3.0807999999999999E-2</v>
+      </c>
+      <c r="AX7" s="2">
+        <v>0.23969799999999999</v>
+      </c>
+      <c r="AY7" s="2">
+        <v>-5.5999999999999995E-4</v>
+      </c>
+      <c r="AZ7" s="2">
+        <v>1.7192499999999999</v>
+      </c>
+      <c r="BA7" s="2">
+        <v>-2.7899999999999999E-3</v>
+      </c>
+      <c r="BB7" s="2">
+        <v>7.6841999999999994E-2</v>
+      </c>
+      <c r="BC7" s="2">
+        <v>5.0071199999999996</v>
+      </c>
+      <c r="BD7" s="2">
+        <v>0.18504499999999999</v>
+      </c>
+      <c r="BE7" s="2">
+        <v>-1.2999999999999999E-4</v>
+      </c>
+      <c r="BF7" s="2">
+        <v>4.3090000000000003E-3</v>
+      </c>
+      <c r="BG7" s="2">
+        <v>1.011E-3</v>
+      </c>
+      <c r="BH7" s="2">
+        <v>2.1930000000000001E-3</v>
+      </c>
+      <c r="BI7" s="2">
+        <v>1.403E-3</v>
+      </c>
+      <c r="BJ7" s="2">
+        <v>1.451E-3</v>
+      </c>
+      <c r="BK7" s="2">
+        <v>-1.291E-2</v>
+      </c>
+      <c r="BL7" s="2">
+        <v>22</v>
+      </c>
+      <c r="BM7" s="2">
+        <v>1.73977</v>
+      </c>
+      <c r="BN7" s="2"/>
+      <c r="BO7" s="2"/>
+      <c r="BP7" s="2"/>
+      <c r="BQ7" s="2"/>
+      <c r="BR7" s="2"/>
+      <c r="BS7" s="2">
+        <v>8.0029999999999997E-3</v>
+      </c>
+      <c r="BT7" s="2">
+        <v>1.0515E-2</v>
+      </c>
+      <c r="BU7" s="2">
+        <v>7.5630000000000003E-3</v>
+      </c>
+      <c r="BV7" s="2">
+        <v>1.0050999999999999E-2</v>
+      </c>
+      <c r="BW7" s="2">
+        <v>1.5219E-2</v>
+      </c>
+      <c r="BX7" s="2">
+        <v>1.5923E-2</v>
+      </c>
+      <c r="BY7" s="2">
+        <v>1.4453000000000001E-2</v>
+      </c>
+      <c r="BZ7" s="2">
+        <v>7.3460000000000001E-3</v>
+      </c>
+      <c r="CA7" s="2">
+        <v>9.7590000000000003E-3</v>
+      </c>
+      <c r="CB7" s="2">
+        <v>3.0901999999999999E-2</v>
+      </c>
+      <c r="CC7" s="2">
+        <v>1.2043E-2</v>
+      </c>
+      <c r="CD7" s="2">
+        <v>1.064E-2</v>
+      </c>
+      <c r="CE7" s="2">
+        <v>8.9990000000000001E-3</v>
+      </c>
+      <c r="CF7" s="2">
+        <v>9.4190000000000003E-3</v>
+      </c>
+      <c r="CG7" s="2">
+        <v>6.8250000000000003E-3</v>
+      </c>
+      <c r="CH7" s="2">
+        <v>2.6131999999999999E-2</v>
+      </c>
+      <c r="CI7" s="2">
+        <v>0.18534700000000001</v>
+      </c>
+      <c r="CJ7" s="2">
+        <v>5.8264100000000001</v>
+      </c>
+      <c r="CK7" s="2">
+        <v>1.3202499999999999</v>
+      </c>
+      <c r="CL7" s="2">
+        <v>-190.28</v>
+      </c>
+      <c r="CM7" s="2">
+        <v>0.60577899999999996</v>
+      </c>
+      <c r="CN7" s="2">
+        <v>-52.82</v>
+      </c>
+      <c r="CO7" s="2">
+        <v>3.6129600000000002</v>
+      </c>
+      <c r="CP7" s="2">
+        <v>0.29857499999999998</v>
+      </c>
+      <c r="CQ7" s="2">
+        <v>1.7557700000000001</v>
+      </c>
+      <c r="CR7" s="2">
+        <v>-952</v>
+      </c>
+      <c r="CS7" s="2">
+        <v>69.141499999999994</v>
+      </c>
+      <c r="CT7" s="2">
+        <v>151.40899999999999</v>
+      </c>
+      <c r="CU7" s="2">
+        <v>78.347099999999998</v>
+      </c>
+      <c r="CV7" s="2">
+        <v>120.369</v>
+      </c>
+      <c r="CW7" s="2">
+        <v>75.967100000000002</v>
+      </c>
+      <c r="CX7" s="2">
+        <v>-37.569000000000003</v>
+      </c>
+      <c r="CY7" s="2">
+        <v>74.9358</v>
+      </c>
+      <c r="CZ7" s="2">
+        <v>78.205200000000005</v>
+      </c>
+      <c r="DA7" s="2">
+        <v>10.6905</v>
+      </c>
+      <c r="DB7" s="2">
+        <v>25.02</v>
+      </c>
+      <c r="DC7" s="2">
+        <v>25.04</v>
+      </c>
+      <c r="DD7" s="2">
+        <v>20.364999999999998</v>
+      </c>
+      <c r="DE7" s="2">
+        <v>20.49</v>
+      </c>
+      <c r="DF7" s="2">
+        <v>30</v>
+      </c>
+      <c r="DG7" s="2">
+        <v>30</v>
+      </c>
+      <c r="DH7" s="2">
+        <v>30</v>
+      </c>
+      <c r="DI7" s="2">
+        <v>30</v>
+      </c>
+      <c r="DJ7" s="2">
+        <v>45</v>
+      </c>
+      <c r="DK7" s="2">
+        <v>30</v>
+      </c>
+      <c r="DL7" s="2">
+        <v>45</v>
+      </c>
+      <c r="DM7" s="2">
+        <v>30</v>
+      </c>
+      <c r="DN7" s="2">
+        <v>20</v>
+      </c>
+      <c r="DO7" s="2">
+        <v>30</v>
+      </c>
+      <c r="DP7" s="2">
+        <v>30</v>
+      </c>
+      <c r="DQ7" s="2">
+        <v>15</v>
+      </c>
+      <c r="DR7" s="2">
+        <v>20</v>
+      </c>
+      <c r="DS7" s="2">
+        <v>15</v>
+      </c>
+      <c r="DT7" s="2">
+        <v>30</v>
+      </c>
+      <c r="DU7" s="2">
+        <v>70</v>
+      </c>
+      <c r="DV7" s="3">
+        <v>45484.728472222225</v>
+      </c>
+      <c r="DW7" s="2">
+        <v>1039</v>
+      </c>
+      <c r="DX7" s="2">
+        <v>1710</v>
+      </c>
+      <c r="DY7" s="2">
+        <v>1545</v>
+      </c>
+      <c r="DZ7" s="2">
+        <v>1713</v>
+      </c>
+      <c r="EA7" s="2">
+        <v>1715</v>
+      </c>
+      <c r="EB7" s="2">
+        <v>472</v>
+      </c>
+      <c r="EC7" s="2">
+        <v>473</v>
+      </c>
+      <c r="ED7" s="2">
+        <v>450</v>
+      </c>
+      <c r="EE7" s="2">
+        <v>1039</v>
+      </c>
+      <c r="EF7" s="2">
+        <v>830</v>
+      </c>
+      <c r="EG7" s="2">
+        <v>1500</v>
+      </c>
+      <c r="EH7" s="2">
+        <v>1524</v>
+      </c>
+      <c r="EI7" s="2">
+        <v>1940</v>
+      </c>
+      <c r="EJ7" s="2">
+        <v>708</v>
+      </c>
+      <c r="EK7" s="2">
+        <v>1560</v>
+      </c>
+      <c r="EL7" s="2">
+        <v>1360</v>
+      </c>
+      <c r="EM7" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="EN7" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="EO7" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="EP7" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="EQ7" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="ER7" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="ES7" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="ET7" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="EU7" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="EV7" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="EW7" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="EX7" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="EY7" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="EZ7" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="FA7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="FB7" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="FC7" s="2">
+        <v>15.857200000000001</v>
+      </c>
+      <c r="FD7" s="2">
+        <v>37.845700000000001</v>
+      </c>
+      <c r="FE7" s="2">
+        <v>12.555400000000001</v>
+      </c>
+      <c r="FF7" s="2">
+        <v>-1.17E-2</v>
+      </c>
+      <c r="FG7" s="2">
+        <v>44.921399999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:163" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B8" s="2">
+        <v>18</v>
+      </c>
+      <c r="C8" s="2">
+        <v>40</v>
+      </c>
+      <c r="D8" s="2">
+        <v>15</v>
+      </c>
+      <c r="E8" s="2">
+        <v>25</v>
+      </c>
+      <c r="F8" s="2">
+        <v>5</v>
+      </c>
+      <c r="G8" s="2">
+        <v>119</v>
+      </c>
+      <c r="H8" s="2">
+        <v>24.674199999999999</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.18399799999999999</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0.85994599999999999</v>
+      </c>
+      <c r="K8" s="2">
+        <v>7.1100000000000004E-4</v>
+      </c>
+      <c r="L8" s="2">
+        <v>12.318899999999999</v>
+      </c>
+      <c r="M8" s="2">
+        <v>-4.2000000000000002E-4</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0.55798400000000004</v>
+      </c>
+      <c r="O8" s="2">
+        <v>15.189399999999999</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0.97037399999999996</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>2.5159000000000001E-2</v>
+      </c>
+      <c r="R8" s="2">
+        <v>3.8607000000000002E-2</v>
+      </c>
+      <c r="S8" s="2">
+        <v>3.3314999999999997E-2</v>
+      </c>
+      <c r="T8" s="2">
+        <v>5.3699999999999998E-3</v>
+      </c>
+      <c r="U8" s="2">
+        <v>6.8580000000000004E-3</v>
+      </c>
+      <c r="V8" s="2">
+        <v>6.9560000000000004E-3</v>
+      </c>
+      <c r="W8" s="2">
+        <v>-3.066E-2</v>
+      </c>
+      <c r="X8" s="2">
+        <v>44.9071</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>0.223801</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>99.971500000000006</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>52.786900000000003</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>0.306919</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>1.6248499999999999</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>1.039E-3</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>15.8482</v>
+      </c>
+      <c r="AF8" s="2">
+        <v>-5.4000000000000001E-4</v>
+      </c>
+      <c r="AG8" s="2">
+        <v>0.72048999999999996</v>
+      </c>
+      <c r="AH8" s="2">
+        <v>25.188600000000001</v>
+      </c>
+      <c r="AI8" s="2">
+        <v>1.35775</v>
+      </c>
+      <c r="AJ8" s="2">
+        <v>2.809E-2</v>
+      </c>
+      <c r="AK8" s="2">
+        <v>5.2040999999999997E-2</v>
+      </c>
+      <c r="AL8" s="2">
+        <v>4.0131E-2</v>
+      </c>
+      <c r="AM8" s="2">
+        <v>1.2305E-2</v>
+      </c>
+      <c r="AN8" s="2">
+        <v>1.7124E-2</v>
+      </c>
+      <c r="AO8" s="2">
+        <v>6.9560000000000004E-3</v>
+      </c>
+      <c r="AP8" s="2">
+        <v>-3.066E-2</v>
+      </c>
+      <c r="AQ8" s="2">
+        <v>1.1337E-2</v>
+      </c>
+      <c r="AR8" s="2">
+        <v>2</v>
+      </c>
+      <c r="AS8" s="2">
+        <v>99.971500000000006</v>
+      </c>
+      <c r="AT8" s="2">
+        <v>22</v>
+      </c>
+      <c r="AU8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AV8" s="2">
+        <v>6.8862199999999998</v>
+      </c>
+      <c r="AW8" s="2">
+        <v>3.0110000000000001E-2</v>
+      </c>
+      <c r="AX8" s="2">
+        <v>0.24981900000000001</v>
+      </c>
+      <c r="AY8" s="2">
+        <v>1.07E-4</v>
+      </c>
+      <c r="AZ8" s="2">
+        <v>1.72902</v>
+      </c>
+      <c r="BA8" s="2">
+        <v>-6.0000000000000002E-5</v>
+      </c>
+      <c r="BB8" s="2">
+        <v>7.9612000000000002E-2</v>
+      </c>
+      <c r="BC8" s="2">
+        <v>4.8986200000000002</v>
+      </c>
+      <c r="BD8" s="2">
+        <v>0.189775</v>
+      </c>
+      <c r="BE8" s="2">
+        <v>1.436E-3</v>
+      </c>
+      <c r="BF8" s="2">
+        <v>1.3162999999999999E-2</v>
+      </c>
+      <c r="BG8" s="2">
+        <v>6.6779999999999999E-3</v>
+      </c>
+      <c r="BH8" s="2">
+        <v>1.359E-3</v>
+      </c>
+      <c r="BI8" s="2">
+        <v>1.6770000000000001E-3</v>
+      </c>
+      <c r="BJ8" s="2">
+        <v>1.5380000000000001E-3</v>
+      </c>
+      <c r="BK8" s="2">
+        <v>-1.265E-2</v>
+      </c>
+      <c r="BL8" s="2">
+        <v>22</v>
+      </c>
+      <c r="BM8" s="2">
+        <v>1.7403200000000001</v>
+      </c>
+      <c r="BN8" s="2"/>
+      <c r="BO8" s="2"/>
+      <c r="BP8" s="2"/>
+      <c r="BQ8" s="2"/>
+      <c r="BR8" s="2"/>
+      <c r="BS8" s="2">
+        <v>8.012E-3</v>
+      </c>
+      <c r="BT8" s="2">
+        <v>1.0531E-2</v>
+      </c>
+      <c r="BU8" s="2">
+        <v>7.5669999999999999E-3</v>
+      </c>
+      <c r="BV8" s="2">
+        <v>1.0064999999999999E-2</v>
+      </c>
+      <c r="BW8" s="2">
+        <v>1.5242E-2</v>
+      </c>
+      <c r="BX8" s="2">
+        <v>1.5949000000000001E-2</v>
+      </c>
+      <c r="BY8" s="2">
+        <v>1.4468999999999999E-2</v>
+      </c>
+      <c r="BZ8" s="2">
+        <v>7.3660000000000002E-3</v>
+      </c>
+      <c r="CA8" s="2">
+        <v>9.7719999999999994E-3</v>
+      </c>
+      <c r="CB8" s="2">
+        <v>3.0948E-2</v>
+      </c>
+      <c r="CC8" s="2">
+        <v>1.2083E-2</v>
+      </c>
+      <c r="CD8" s="2">
+        <v>1.0654E-2</v>
+      </c>
+      <c r="CE8" s="2">
+        <v>9.0080000000000004E-3</v>
+      </c>
+      <c r="CF8" s="2">
+        <v>9.4299999999999991E-3</v>
+      </c>
+      <c r="CG8" s="2">
+        <v>6.8329999999999997E-3</v>
+      </c>
+      <c r="CH8" s="2">
+        <v>2.5826999999999999E-2</v>
+      </c>
+      <c r="CI8" s="2">
+        <v>0.184888</v>
+      </c>
+      <c r="CJ8" s="2">
+        <v>5.9314099999999996</v>
+      </c>
+      <c r="CK8" s="2">
+        <v>1.2867200000000001</v>
+      </c>
+      <c r="CL8" s="2">
+        <v>1001.55</v>
+      </c>
+      <c r="CM8" s="2">
+        <v>0.60428300000000001</v>
+      </c>
+      <c r="CN8" s="2">
+        <v>-2664.4</v>
+      </c>
+      <c r="CO8" s="2">
+        <v>3.53498</v>
+      </c>
+      <c r="CP8" s="2">
+        <v>0.30235899999999999</v>
+      </c>
+      <c r="CQ8" s="2">
+        <v>1.7311300000000001</v>
+      </c>
+      <c r="CR8" s="2">
+        <v>89.278800000000004</v>
+      </c>
+      <c r="CS8" s="2">
+        <v>23.873899999999999</v>
+      </c>
+      <c r="CT8" s="2">
+        <v>24.856100000000001</v>
+      </c>
+      <c r="CU8" s="2">
+        <v>123.621</v>
+      </c>
+      <c r="CV8" s="2">
+        <v>101.535</v>
+      </c>
+      <c r="CW8" s="2">
+        <v>71.904399999999995</v>
+      </c>
+      <c r="CX8" s="2">
+        <v>-37.9</v>
+      </c>
+      <c r="CY8" s="2">
+        <v>74.6203</v>
+      </c>
+      <c r="CZ8" s="2">
+        <v>78.483599999999996</v>
+      </c>
+      <c r="DA8" s="2">
+        <v>10.6905</v>
+      </c>
+      <c r="DB8" s="2">
+        <v>25</v>
+      </c>
+      <c r="DC8" s="2">
+        <v>25.04</v>
+      </c>
+      <c r="DD8" s="2">
+        <v>20.43</v>
+      </c>
+      <c r="DE8" s="2">
+        <v>20.55</v>
+      </c>
+      <c r="DF8" s="2">
+        <v>30</v>
+      </c>
+      <c r="DG8" s="2">
+        <v>30</v>
+      </c>
+      <c r="DH8" s="2">
+        <v>30</v>
+      </c>
+      <c r="DI8" s="2">
+        <v>30</v>
+      </c>
+      <c r="DJ8" s="2">
+        <v>45</v>
+      </c>
+      <c r="DK8" s="2">
+        <v>30</v>
+      </c>
+      <c r="DL8" s="2">
+        <v>45</v>
+      </c>
+      <c r="DM8" s="2">
+        <v>30</v>
+      </c>
+      <c r="DN8" s="2">
+        <v>20</v>
+      </c>
+      <c r="DO8" s="2">
+        <v>30</v>
+      </c>
+      <c r="DP8" s="2">
+        <v>30</v>
+      </c>
+      <c r="DQ8" s="2">
+        <v>15</v>
+      </c>
+      <c r="DR8" s="2">
+        <v>20</v>
+      </c>
+      <c r="DS8" s="2">
+        <v>15</v>
+      </c>
+      <c r="DT8" s="2">
+        <v>30</v>
+      </c>
+      <c r="DU8" s="2">
+        <v>70</v>
+      </c>
+      <c r="DV8" s="3">
+        <v>45484.730555555558</v>
+      </c>
+      <c r="DW8" s="2">
+        <v>1039</v>
+      </c>
+      <c r="DX8" s="2">
+        <v>1710</v>
+      </c>
+      <c r="DY8" s="2">
+        <v>1545</v>
+      </c>
+      <c r="DZ8" s="2">
+        <v>1713</v>
+      </c>
+      <c r="EA8" s="2">
+        <v>1715</v>
+      </c>
+      <c r="EB8" s="2">
+        <v>472</v>
+      </c>
+      <c r="EC8" s="2">
+        <v>473</v>
+      </c>
+      <c r="ED8" s="2">
+        <v>450</v>
+      </c>
+      <c r="EE8" s="2">
+        <v>1039</v>
+      </c>
+      <c r="EF8" s="2">
+        <v>830</v>
+      </c>
+      <c r="EG8" s="2">
+        <v>1500</v>
+      </c>
+      <c r="EH8" s="2">
+        <v>1524</v>
+      </c>
+      <c r="EI8" s="2">
+        <v>1940</v>
+      </c>
+      <c r="EJ8" s="2">
+        <v>708</v>
+      </c>
+      <c r="EK8" s="2">
+        <v>1560</v>
+      </c>
+      <c r="EL8" s="2">
+        <v>1360</v>
+      </c>
+      <c r="EM8" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="EN8" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="EO8" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="EP8" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="EQ8" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="ER8" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="ES8" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="ET8" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="EU8" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="EV8" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="EW8" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="EX8" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="EY8" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="EZ8" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="FA8" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="FB8" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="FC8" s="2">
+        <v>15.8279</v>
+      </c>
+      <c r="FD8" s="2">
+        <v>37.816699999999997</v>
+      </c>
+      <c r="FE8" s="2">
+        <v>12.5893</v>
+      </c>
+      <c r="FF8" s="2">
+        <v>-1.1339999999999999E-2</v>
+      </c>
+      <c r="FG8" s="2">
+        <v>44.9071</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1C01EEE-545C-4B4F-8019-ECBF914A423A}">
   <sheetPr>
